--- a/DataExtraction/Input/AOC4_NBFC/AOC-4_NBFC_nodes_seperated_config_new.xlsx
+++ b/DataExtraction/Input/AOC4_NBFC/AOC-4_NBFC_nodes_seperated_config_new.xlsx
@@ -74,16 +74,19 @@
     <t>filing_type</t>
   </si>
   <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
     <t>Common</t>
   </si>
   <si>
-    <t>NBFC</t>
-  </si>
-  <si>
     <t>filing_standard</t>
   </si>
   <si>
-    <t>NBFC_IND AS</t>
+    <t>Normal</t>
   </si>
   <si>
     <t>Financials-PREVIOUS YEAR</t>
@@ -1030,61 +1033,6 @@
   </si>
   <si>
     <t>NAME_OF_MEMBER, NAME_AUDT_AUDTRF, IT_PAN, MEMBERSHIP_NUMBR, MEMBERSHIP_NUM_A, ADDRESS_LINE_I, ADDRESS_LINE_II, CITY, STATE, COUNTRY, PIN_CODE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">address is combination of all fields -address1,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">address2,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">CITY, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">STATE,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">COUNTRY,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>PIN_CODE</t>
-    </r>
   </si>
   <si>
     <t>auditor_name, auditor_firm_name, pan, membership_number, firm_registration_number, address</t>
@@ -1403,7 +1351,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top style="thin">
@@ -1424,19 +1372,6 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,6 +1412,19 @@
         <color indexed="8"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1696,7 +1644,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1709,7 +1657,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1754,22 +1702,28 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1781,7 +1735,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1793,7 +1747,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1802,16 +1756,16 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1819,9 +1773,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
@@ -1835,7 +1786,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1877,7 +1828,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1897,9 +1848,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1922,12 +1870,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1937,7 +1879,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3002,7 +2944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J253"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3013,11 +2955,11 @@
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="61" style="1" customWidth="1"/>
-    <col min="6" max="7" width="26.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.1719" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.1719" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -3036,17 +2978,16 @@
       <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" t="s" s="5">
+      <c r="G1" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="6">
+      <c r="H1" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="7">
+      <c r="I1" t="s" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3059,10 +3000,9 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="12">
@@ -3083,14 +3023,13 @@
       <c r="F3" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s" s="16">
+      <c r="G3" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="12">
@@ -3111,14 +3050,13 @@
       <c r="F4" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s" s="16">
+      <c r="G4" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="17">
@@ -3130,61 +3068,62 @@
       <c r="C5" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" t="s" s="14">
+      <c r="D5" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="G5" t="s" s="18">
+      <c r="E5" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="H5" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s" s="18">
+      <c r="F5" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s" s="22">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s" s="23">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s" s="22">
+      <c r="G6" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="25">
         <v>23</v>
       </c>
-      <c r="H6" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="J6" s="20"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="24">
-        <v>24</v>
+      <c r="A7" t="s" s="26">
+        <v>25</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="12">
@@ -3200,19 +3139,18 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="12">
@@ -3231,16 +3169,15 @@
         <v>18</v>
       </c>
       <c r="F9" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="17">
@@ -3252,65 +3189,66 @@
       <c r="C10" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" t="s" s="14">
+      <c r="D10" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="G10" t="s" s="18">
+      <c r="E10" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="H10" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s" s="18">
+      <c r="F10" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s" s="22">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s" s="23">
         <v>22</v>
       </c>
-      <c r="B11" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s" s="22">
+      <c r="G11" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="25">
         <v>23</v>
       </c>
-      <c r="H11" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="J11" s="20"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="25">
-        <v>27</v>
-      </c>
-      <c r="B12" s="20"/>
+      <c r="A12" t="s" s="27">
+        <v>28</v>
+      </c>
+      <c r="B12" s="21"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="26">
-        <v>28</v>
+      <c r="A13" t="s" s="28">
+        <v>29</v>
       </c>
       <c r="B13" t="s" s="13">
         <v>11</v>
@@ -3322,25 +3260,24 @@
         <v>13</v>
       </c>
       <c r="E13" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s" s="29">
         <v>29</v>
-      </c>
-      <c r="F13" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s" s="27">
-        <v>28</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s" s="13">
         <v>11</v>
@@ -3352,25 +3289,24 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s" s="29">
         <v>32</v>
-      </c>
-      <c r="F14" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s" s="27">
-        <v>31</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="13">
         <v>11</v>
@@ -3382,25 +3318,24 @@
         <v>13</v>
       </c>
       <c r="E15" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s" s="29">
         <v>34</v>
-      </c>
-      <c r="F15" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J15" t="s" s="27">
-        <v>33</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" t="s" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="13">
         <v>11</v>
@@ -3412,25 +3347,24 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s" s="29">
         <v>36</v>
-      </c>
-      <c r="F16" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J16" t="s" s="27">
-        <v>35</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1">
       <c r="A17" t="s" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s" s="13">
         <v>11</v>
@@ -3442,25 +3376,24 @@
         <v>13</v>
       </c>
       <c r="E17" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s" s="29">
         <v>38</v>
-      </c>
-      <c r="F17" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J17" t="s" s="27">
-        <v>37</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" t="s" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s" s="13">
         <v>11</v>
@@ -3472,25 +3405,24 @@
         <v>13</v>
       </c>
       <c r="E18" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s" s="30">
         <v>40</v>
-      </c>
-      <c r="F18" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J18" t="s" s="28">
-        <v>39</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="13">
         <v>11</v>
@@ -3502,25 +3434,24 @@
         <v>13</v>
       </c>
       <c r="E19" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="31">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s" s="12">
         <v>42</v>
-      </c>
-      <c r="F19" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s" s="29">
-        <v>30</v>
-      </c>
-      <c r="J19" t="s" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1">
       <c r="A20" t="s" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="13">
         <v>11</v>
@@ -3532,25 +3463,24 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s" s="32">
         <v>44</v>
-      </c>
-      <c r="F20" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J20" t="s" s="30">
-        <v>43</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s" s="13">
         <v>11</v>
@@ -3562,25 +3492,24 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s" s="29">
         <v>46</v>
-      </c>
-      <c r="F21" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J21" t="s" s="27">
-        <v>45</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" t="s" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="13">
         <v>11</v>
@@ -3592,25 +3521,24 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s" s="29">
         <v>48</v>
-      </c>
-      <c r="F22" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J22" t="s" s="27">
-        <v>47</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="1">
       <c r="A23" t="s" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s" s="13">
         <v>11</v>
@@ -3622,25 +3550,24 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s" s="29">
         <v>50</v>
-      </c>
-      <c r="F23" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J23" t="s" s="27">
-        <v>49</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s" s="13">
         <v>11</v>
@@ -3652,25 +3579,24 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s" s="29">
         <v>52</v>
-      </c>
-      <c r="F24" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I24" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s" s="27">
-        <v>51</v>
       </c>
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s" s="13">
         <v>11</v>
@@ -3682,25 +3608,24 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s" s="29">
         <v>54</v>
-      </c>
-      <c r="F25" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I25" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J25" t="s" s="27">
-        <v>53</v>
       </c>
     </row>
     <row r="26" ht="17" customHeight="1">
       <c r="A26" t="s" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s" s="13">
         <v>11</v>
@@ -3712,25 +3637,24 @@
         <v>13</v>
       </c>
       <c r="E26" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s" s="29">
         <v>56</v>
-      </c>
-      <c r="F26" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J26" t="s" s="27">
-        <v>55</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" t="s" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s" s="13">
         <v>11</v>
@@ -3742,25 +3666,24 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="14">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s" s="29">
         <v>58</v>
-      </c>
-      <c r="F27" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J27" t="s" s="27">
-        <v>57</v>
       </c>
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s" s="13">
         <v>11</v>
@@ -3772,25 +3695,24 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s" s="29">
         <v>60</v>
-      </c>
-      <c r="F28" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J28" t="s" s="27">
-        <v>59</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" t="s" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s" s="13">
         <v>11</v>
@@ -3802,25 +3724,24 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s" s="29">
         <v>62</v>
-      </c>
-      <c r="F29" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J29" t="s" s="27">
-        <v>61</v>
       </c>
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" t="s" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s" s="13">
         <v>11</v>
@@ -3832,25 +3753,24 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s" s="29">
         <v>64</v>
-      </c>
-      <c r="F30" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I30" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J30" t="s" s="27">
-        <v>63</v>
       </c>
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" t="s" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s" s="13">
         <v>11</v>
@@ -3862,25 +3782,24 @@
         <v>13</v>
       </c>
       <c r="E31" t="s" s="14">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s" s="29">
         <v>66</v>
-      </c>
-      <c r="F31" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I31" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J31" t="s" s="27">
-        <v>65</v>
       </c>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s" s="12">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s" s="13">
         <v>11</v>
@@ -3892,27 +3811,26 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s" s="29">
         <v>68</v>
       </c>
-      <c r="F32" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I32" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J32" t="s" s="27">
-        <v>67</v>
-      </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" t="s" s="25">
-        <v>69</v>
-      </c>
-      <c r="B33" s="20"/>
+      <c r="A33" t="s" s="27">
+        <v>70</v>
+      </c>
+      <c r="B33" s="21"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -3920,11 +3838,10 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
     </row>
     <row r="34" ht="17" customHeight="1">
-      <c r="A34" t="s" s="26">
-        <v>28</v>
+      <c r="A34" t="s" s="28">
+        <v>29</v>
       </c>
       <c r="B34" t="s" s="13">
         <v>11</v>
@@ -3936,25 +3853,24 @@
         <v>13</v>
       </c>
       <c r="E34" t="s" s="14">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G34" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G34" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H34" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J34" t="s" s="27">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="I34" t="s" s="29">
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" t="s" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s" s="13">
         <v>11</v>
@@ -3966,25 +3882,24 @@
         <v>13</v>
       </c>
       <c r="E35" t="s" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G35" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G35" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H35" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J35" t="s" s="27">
         <v>31</v>
+      </c>
+      <c r="I35" t="s" s="29">
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s" s="13">
         <v>11</v>
@@ -3996,25 +3911,24 @@
         <v>13</v>
       </c>
       <c r="E36" t="s" s="14">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G36" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G36" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H36" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I36" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J36" t="s" s="27">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="I36" t="s" s="29">
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="17" customHeight="1">
       <c r="A37" t="s" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s" s="13">
         <v>11</v>
@@ -4026,25 +3940,24 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="14">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G37" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G37" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H37" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I37" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J37" t="s" s="27">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="I37" t="s" s="29">
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="17" customHeight="1">
       <c r="A38" t="s" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s" s="13">
         <v>11</v>
@@ -4056,25 +3969,24 @@
         <v>13</v>
       </c>
       <c r="E38" t="s" s="14">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G38" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G38" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H38" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I38" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J38" t="s" s="27">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="I38" t="s" s="29">
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="17" customHeight="1">
       <c r="A39" t="s" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s" s="13">
         <v>11</v>
@@ -4086,25 +3998,24 @@
         <v>13</v>
       </c>
       <c r="E39" t="s" s="14">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G39" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G39" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H39" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I39" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J39" t="s" s="28">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="I39" t="s" s="30">
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s" s="13">
         <v>11</v>
@@ -4116,25 +4027,24 @@
         <v>13</v>
       </c>
       <c r="E40" t="s" s="14">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s" s="29">
-        <v>30</v>
-      </c>
-      <c r="J40" t="s" s="12">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="G40" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="31">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s" s="12">
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="17" customHeight="1">
       <c r="A41" t="s" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s" s="13">
         <v>11</v>
@@ -4146,25 +4056,24 @@
         <v>13</v>
       </c>
       <c r="E41" t="s" s="14">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G41" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G41" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H41" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J41" t="s" s="30">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="I41" t="s" s="32">
+        <v>44</v>
       </c>
     </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" t="s" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s" s="13">
         <v>11</v>
@@ -4176,25 +4085,24 @@
         <v>13</v>
       </c>
       <c r="E42" t="s" s="14">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G42" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G42" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H42" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J42" t="s" s="27">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="I42" t="s" s="29">
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" t="s" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s" s="13">
         <v>11</v>
@@ -4206,25 +4114,24 @@
         <v>13</v>
       </c>
       <c r="E43" t="s" s="14">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G43" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G43" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H43" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J43" t="s" s="27">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="I43" t="s" s="29">
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="17" customHeight="1">
       <c r="A44" t="s" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s" s="13">
         <v>11</v>
@@ -4236,25 +4143,24 @@
         <v>13</v>
       </c>
       <c r="E44" t="s" s="14">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G44" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G44" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H44" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I44" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J44" t="s" s="27">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="I44" t="s" s="29">
+        <v>50</v>
       </c>
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" t="s" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s" s="13">
         <v>11</v>
@@ -4266,25 +4172,24 @@
         <v>13</v>
       </c>
       <c r="E45" t="s" s="14">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G45" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G45" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H45" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J45" t="s" s="27">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="I45" t="s" s="29">
+        <v>52</v>
       </c>
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s" s="13">
         <v>11</v>
@@ -4296,25 +4201,24 @@
         <v>13</v>
       </c>
       <c r="E46" t="s" s="14">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G46" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G46" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H46" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I46" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J46" t="s" s="27">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="I46" t="s" s="29">
+        <v>54</v>
       </c>
     </row>
     <row r="47" ht="17" customHeight="1">
       <c r="A47" t="s" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s" s="13">
         <v>11</v>
@@ -4326,25 +4230,24 @@
         <v>13</v>
       </c>
       <c r="E47" t="s" s="14">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G47" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G47" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H47" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J47" t="s" s="27">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="I47" t="s" s="29">
+        <v>56</v>
       </c>
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" t="s" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s" s="13">
         <v>11</v>
@@ -4356,25 +4259,24 @@
         <v>13</v>
       </c>
       <c r="E48" t="s" s="14">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G48" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G48" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H48" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I48" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J48" t="s" s="27">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="I48" t="s" s="29">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" t="s" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s" s="13">
         <v>11</v>
@@ -4386,25 +4288,24 @@
         <v>13</v>
       </c>
       <c r="E49" t="s" s="14">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G49" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G49" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H49" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I49" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J49" t="s" s="27">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="I49" t="s" s="29">
+        <v>60</v>
       </c>
     </row>
     <row r="50" ht="17" customHeight="1">
       <c r="A50" t="s" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s" s="13">
         <v>11</v>
@@ -4416,25 +4317,24 @@
         <v>13</v>
       </c>
       <c r="E50" t="s" s="14">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G50" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G50" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H50" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I50" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J50" t="s" s="27">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="I50" t="s" s="29">
+        <v>62</v>
       </c>
     </row>
     <row r="51" ht="17" customHeight="1">
       <c r="A51" t="s" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s" s="13">
         <v>11</v>
@@ -4446,25 +4346,24 @@
         <v>13</v>
       </c>
       <c r="E51" t="s" s="14">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G51" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G51" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H51" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I51" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J51" t="s" s="27">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="I51" t="s" s="29">
+        <v>64</v>
       </c>
     </row>
     <row r="52" ht="17" customHeight="1">
       <c r="A52" t="s" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s" s="13">
         <v>11</v>
@@ -4476,25 +4375,24 @@
         <v>13</v>
       </c>
       <c r="E52" t="s" s="14">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G52" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G52" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H52" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I52" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J52" t="s" s="27">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="I52" t="s" s="29">
+        <v>66</v>
       </c>
     </row>
     <row r="53" ht="17" customHeight="1">
       <c r="A53" t="s" s="12">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s" s="13">
         <v>11</v>
@@ -4506,27 +4404,26 @@
         <v>13</v>
       </c>
       <c r="E53" t="s" s="14">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G53" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G53" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H53" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I53" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="J53" t="s" s="27">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="I53" t="s" s="29">
+        <v>68</v>
       </c>
     </row>
     <row r="54" ht="13.55" customHeight="1">
-      <c r="A54" t="s" s="25">
-        <v>90</v>
-      </c>
-      <c r="B54" s="20"/>
+      <c r="A54" t="s" s="27">
+        <v>91</v>
+      </c>
+      <c r="B54" s="21"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -4534,11 +4431,10 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
     </row>
     <row r="55" ht="17" customHeight="1">
       <c r="A55" t="s" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s" s="13">
         <v>11</v>
@@ -4550,25 +4446,24 @@
         <v>13</v>
       </c>
       <c r="E55" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="F55" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I55" t="s" s="33">
         <v>92</v>
-      </c>
-      <c r="F55" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I55" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J55" t="s" s="31">
-        <v>91</v>
       </c>
     </row>
     <row r="56" ht="17" customHeight="1">
       <c r="A56" t="s" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s" s="13">
         <v>11</v>
@@ -4580,25 +4475,24 @@
         <v>13</v>
       </c>
       <c r="E56" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I56" t="s" s="33">
         <v>95</v>
-      </c>
-      <c r="F56" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G56" s="10"/>
-      <c r="H56" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I56" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J56" t="s" s="31">
-        <v>94</v>
       </c>
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" t="s" s="12">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s" s="13">
         <v>11</v>
@@ -4610,25 +4504,24 @@
         <v>13</v>
       </c>
       <c r="E57" t="s" s="14">
+        <v>98</v>
+      </c>
+      <c r="F57" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I57" t="s" s="33">
         <v>97</v>
-      </c>
-      <c r="F57" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I57" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J57" t="s" s="31">
-        <v>96</v>
       </c>
     </row>
     <row r="58" ht="17" customHeight="1">
       <c r="A58" t="s" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s" s="13">
         <v>11</v>
@@ -4640,25 +4533,24 @@
         <v>13</v>
       </c>
       <c r="E58" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="F58" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I58" t="s" s="33">
         <v>99</v>
-      </c>
-      <c r="F58" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G58" s="10"/>
-      <c r="H58" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I58" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J58" t="s" s="31">
-        <v>98</v>
       </c>
     </row>
     <row r="59" ht="17" customHeight="1">
       <c r="A59" t="s" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s" s="13">
         <v>11</v>
@@ -4670,25 +4562,24 @@
         <v>13</v>
       </c>
       <c r="E59" t="s" s="14">
+        <v>102</v>
+      </c>
+      <c r="F59" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I59" t="s" s="33">
         <v>101</v>
-      </c>
-      <c r="F59" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I59" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J59" t="s" s="31">
-        <v>100</v>
       </c>
     </row>
     <row r="60" ht="17" customHeight="1">
       <c r="A60" t="s" s="12">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s" s="13">
         <v>11</v>
@@ -4700,25 +4591,24 @@
         <v>13</v>
       </c>
       <c r="E60" t="s" s="14">
+        <v>104</v>
+      </c>
+      <c r="F60" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I60" t="s" s="33">
         <v>103</v>
-      </c>
-      <c r="F60" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G60" s="10"/>
-      <c r="H60" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I60" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J60" t="s" s="31">
-        <v>102</v>
       </c>
     </row>
     <row r="61" ht="17" customHeight="1">
       <c r="A61" t="s" s="12">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s" s="13">
         <v>11</v>
@@ -4730,25 +4620,24 @@
         <v>13</v>
       </c>
       <c r="E61" t="s" s="14">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I61" t="s" s="33">
         <v>105</v>
-      </c>
-      <c r="F61" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I61" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J61" t="s" s="31">
-        <v>104</v>
       </c>
     </row>
     <row r="62" ht="17" customHeight="1">
       <c r="A62" t="s" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s" s="13">
         <v>11</v>
@@ -4760,25 +4649,24 @@
         <v>13</v>
       </c>
       <c r="E62" t="s" s="14">
+        <v>108</v>
+      </c>
+      <c r="F62" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I62" t="s" s="33">
         <v>107</v>
-      </c>
-      <c r="F62" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I62" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J62" t="s" s="31">
-        <v>106</v>
       </c>
     </row>
     <row r="63" ht="17" customHeight="1">
       <c r="A63" t="s" s="12">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s" s="13">
         <v>11</v>
@@ -4790,25 +4678,24 @@
         <v>13</v>
       </c>
       <c r="E63" t="s" s="14">
+        <v>110</v>
+      </c>
+      <c r="F63" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I63" t="s" s="33">
         <v>109</v>
-      </c>
-      <c r="F63" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I63" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J63" t="s" s="31">
-        <v>108</v>
       </c>
     </row>
     <row r="64" ht="17" customHeight="1">
       <c r="A64" t="s" s="12">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s" s="13">
         <v>11</v>
@@ -4820,25 +4707,24 @@
         <v>13</v>
       </c>
       <c r="E64" t="s" s="14">
+        <v>112</v>
+      </c>
+      <c r="F64" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I64" t="s" s="33">
         <v>111</v>
-      </c>
-      <c r="F64" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I64" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J64" t="s" s="31">
-        <v>110</v>
       </c>
     </row>
     <row r="65" ht="17" customHeight="1">
       <c r="A65" t="s" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s" s="13">
         <v>11</v>
@@ -4850,25 +4736,24 @@
         <v>13</v>
       </c>
       <c r="E65" t="s" s="14">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I65" t="s" s="33">
         <v>113</v>
-      </c>
-      <c r="F65" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G65" s="10"/>
-      <c r="H65" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I65" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J65" t="s" s="31">
-        <v>112</v>
       </c>
     </row>
     <row r="66" ht="17" customHeight="1">
       <c r="A66" t="s" s="12">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s" s="13">
         <v>11</v>
@@ -4880,25 +4765,24 @@
         <v>13</v>
       </c>
       <c r="E66" t="s" s="14">
+        <v>116</v>
+      </c>
+      <c r="F66" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I66" t="s" s="33">
         <v>115</v>
-      </c>
-      <c r="F66" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G66" s="10"/>
-      <c r="H66" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I66" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J66" t="s" s="31">
-        <v>114</v>
       </c>
     </row>
     <row r="67" ht="17" customHeight="1">
       <c r="A67" t="s" s="12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s" s="13">
         <v>11</v>
@@ -4910,25 +4794,24 @@
         <v>13</v>
       </c>
       <c r="E67" t="s" s="14">
+        <v>118</v>
+      </c>
+      <c r="F67" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I67" t="s" s="33">
         <v>117</v>
-      </c>
-      <c r="F67" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G67" s="10"/>
-      <c r="H67" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I67" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J67" t="s" s="31">
-        <v>116</v>
       </c>
     </row>
     <row r="68" ht="17" customHeight="1">
       <c r="A68" t="s" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s" s="13">
         <v>11</v>
@@ -4940,25 +4823,24 @@
         <v>13</v>
       </c>
       <c r="E68" t="s" s="14">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I68" t="s" s="33">
         <v>119</v>
-      </c>
-      <c r="F68" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G68" s="10"/>
-      <c r="H68" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I68" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J68" t="s" s="31">
-        <v>118</v>
       </c>
     </row>
     <row r="69" ht="17" customHeight="1">
       <c r="A69" t="s" s="12">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s" s="13">
         <v>11</v>
@@ -4970,25 +4852,24 @@
         <v>13</v>
       </c>
       <c r="E69" t="s" s="14">
+        <v>122</v>
+      </c>
+      <c r="F69" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I69" t="s" s="33">
         <v>121</v>
-      </c>
-      <c r="F69" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I69" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J69" t="s" s="31">
-        <v>120</v>
       </c>
     </row>
     <row r="70" ht="17" customHeight="1">
       <c r="A70" t="s" s="12">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s" s="13">
         <v>11</v>
@@ -5000,25 +4881,24 @@
         <v>13</v>
       </c>
       <c r="E70" t="s" s="14">
+        <v>124</v>
+      </c>
+      <c r="F70" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I70" t="s" s="34">
         <v>123</v>
       </c>
-      <c r="F70" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G70" s="10"/>
-      <c r="H70" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I70" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J70" t="s" s="32">
-        <v>122</v>
-      </c>
     </row>
     <row r="71" ht="13.55" customHeight="1">
-      <c r="A71" t="s" s="26">
-        <v>124</v>
+      <c r="A71" t="s" s="28">
+        <v>125</v>
       </c>
       <c r="B71" t="s" s="13">
         <v>11</v>
@@ -5030,25 +4910,24 @@
         <v>13</v>
       </c>
       <c r="E71" t="s" s="14">
+        <v>126</v>
+      </c>
+      <c r="F71" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="31">
+        <v>94</v>
+      </c>
+      <c r="I71" t="s" s="12">
         <v>125</v>
       </c>
-      <c r="F71" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G71" s="10"/>
-      <c r="H71" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I71" t="s" s="29">
-        <v>93</v>
-      </c>
-      <c r="J71" t="s" s="12">
-        <v>124</v>
-      </c>
     </row>
     <row r="72" ht="17" customHeight="1">
-      <c r="A72" t="s" s="33">
-        <v>126</v>
+      <c r="A72" t="s" s="35">
+        <v>127</v>
       </c>
       <c r="B72" t="s" s="13">
         <v>11</v>
@@ -5057,28 +4936,27 @@
         <v>12</v>
       </c>
       <c r="D72" t="s" s="14">
+        <v>128</v>
+      </c>
+      <c r="E72" t="s" s="14">
+        <v>129</v>
+      </c>
+      <c r="F72" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I72" t="s" s="36">
         <v>127</v>
-      </c>
-      <c r="E72" t="s" s="14">
-        <v>128</v>
-      </c>
-      <c r="F72" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G72" s="10"/>
-      <c r="H72" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I72" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J72" t="s" s="34">
-        <v>126</v>
       </c>
     </row>
     <row r="73" ht="17" customHeight="1">
       <c r="A73" t="s" s="12">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s" s="13">
         <v>11</v>
@@ -5087,28 +4965,27 @@
         <v>12</v>
       </c>
       <c r="D73" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E73" t="s" s="14">
+        <v>131</v>
+      </c>
+      <c r="F73" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I73" t="s" s="33">
         <v>130</v>
-      </c>
-      <c r="F73" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G73" s="10"/>
-      <c r="H73" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I73" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J73" t="s" s="31">
-        <v>129</v>
       </c>
     </row>
     <row r="74" ht="17" customHeight="1">
       <c r="A74" t="s" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s" s="13">
         <v>11</v>
@@ -5117,28 +4994,27 @@
         <v>12</v>
       </c>
       <c r="D74" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E74" t="s" s="14">
+        <v>133</v>
+      </c>
+      <c r="F74" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s" s="33">
         <v>132</v>
-      </c>
-      <c r="F74" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G74" s="10"/>
-      <c r="H74" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I74" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J74" t="s" s="31">
-        <v>131</v>
       </c>
     </row>
     <row r="75" ht="17" customHeight="1">
       <c r="A75" t="s" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s" s="13">
         <v>11</v>
@@ -5147,28 +5023,27 @@
         <v>12</v>
       </c>
       <c r="D75" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E75" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="F75" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I75" t="s" s="33">
         <v>134</v>
-      </c>
-      <c r="F75" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G75" s="10"/>
-      <c r="H75" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I75" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J75" t="s" s="31">
-        <v>133</v>
       </c>
     </row>
     <row r="76" ht="17" customHeight="1">
       <c r="A76" t="s" s="12">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s" s="13">
         <v>11</v>
@@ -5177,28 +5052,27 @@
         <v>12</v>
       </c>
       <c r="D76" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s" s="14">
+        <v>137</v>
+      </c>
+      <c r="F76" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I76" t="s" s="33">
         <v>136</v>
-      </c>
-      <c r="F76" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G76" s="10"/>
-      <c r="H76" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I76" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J76" t="s" s="31">
-        <v>135</v>
       </c>
     </row>
     <row r="77" ht="17" customHeight="1">
       <c r="A77" t="s" s="12">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s" s="13">
         <v>11</v>
@@ -5207,28 +5081,27 @@
         <v>12</v>
       </c>
       <c r="D77" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E77" t="s" s="14">
+        <v>139</v>
+      </c>
+      <c r="F77" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I77" t="s" s="33">
         <v>138</v>
-      </c>
-      <c r="F77" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G77" s="10"/>
-      <c r="H77" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I77" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J77" t="s" s="31">
-        <v>137</v>
       </c>
     </row>
     <row r="78" ht="17" customHeight="1">
       <c r="A78" t="s" s="12">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s" s="13">
         <v>11</v>
@@ -5237,28 +5110,27 @@
         <v>12</v>
       </c>
       <c r="D78" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E78" t="s" s="14">
+        <v>141</v>
+      </c>
+      <c r="F78" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I78" t="s" s="33">
         <v>140</v>
-      </c>
-      <c r="F78" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G78" s="10"/>
-      <c r="H78" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I78" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J78" t="s" s="31">
-        <v>139</v>
       </c>
     </row>
     <row r="79" ht="17" customHeight="1">
       <c r="A79" t="s" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s" s="13">
         <v>11</v>
@@ -5267,28 +5139,27 @@
         <v>12</v>
       </c>
       <c r="D79" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E79" t="s" s="14">
+        <v>143</v>
+      </c>
+      <c r="F79" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I79" t="s" s="33">
         <v>142</v>
-      </c>
-      <c r="F79" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G79" s="10"/>
-      <c r="H79" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I79" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J79" t="s" s="31">
-        <v>141</v>
       </c>
     </row>
     <row r="80" ht="17" customHeight="1">
       <c r="A80" t="s" s="12">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s" s="13">
         <v>11</v>
@@ -5297,28 +5168,27 @@
         <v>12</v>
       </c>
       <c r="D80" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E80" t="s" s="14">
+        <v>145</v>
+      </c>
+      <c r="F80" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I80" t="s" s="33">
         <v>144</v>
-      </c>
-      <c r="F80" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G80" s="10"/>
-      <c r="H80" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I80" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J80" t="s" s="31">
-        <v>143</v>
       </c>
     </row>
     <row r="81" ht="17" customHeight="1">
       <c r="A81" t="s" s="12">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s" s="13">
         <v>11</v>
@@ -5327,28 +5197,27 @@
         <v>12</v>
       </c>
       <c r="D81" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s" s="14">
+        <v>147</v>
+      </c>
+      <c r="F81" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I81" t="s" s="33">
         <v>146</v>
-      </c>
-      <c r="F81" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G81" s="10"/>
-      <c r="H81" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I81" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J81" t="s" s="31">
-        <v>145</v>
       </c>
     </row>
     <row r="82" ht="17" customHeight="1">
       <c r="A82" t="s" s="12">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s" s="13">
         <v>11</v>
@@ -5357,28 +5226,27 @@
         <v>12</v>
       </c>
       <c r="D82" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s" s="14">
+        <v>149</v>
+      </c>
+      <c r="F82" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I82" t="s" s="33">
         <v>148</v>
-      </c>
-      <c r="F82" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G82" s="10"/>
-      <c r="H82" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I82" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J82" t="s" s="31">
-        <v>147</v>
       </c>
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" t="s" s="12">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s" s="13">
         <v>11</v>
@@ -5387,28 +5255,27 @@
         <v>12</v>
       </c>
       <c r="D83" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E83" t="s" s="14">
+        <v>151</v>
+      </c>
+      <c r="F83" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I83" t="s" s="33">
         <v>150</v>
-      </c>
-      <c r="F83" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G83" s="10"/>
-      <c r="H83" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I83" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J83" t="s" s="31">
-        <v>149</v>
       </c>
     </row>
     <row r="84" ht="17" customHeight="1">
       <c r="A84" t="s" s="12">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s" s="13">
         <v>11</v>
@@ -5417,28 +5284,27 @@
         <v>12</v>
       </c>
       <c r="D84" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E84" t="s" s="14">
+        <v>153</v>
+      </c>
+      <c r="F84" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I84" t="s" s="33">
         <v>152</v>
-      </c>
-      <c r="F84" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G84" s="10"/>
-      <c r="H84" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I84" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J84" t="s" s="31">
-        <v>151</v>
       </c>
     </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" t="s" s="12">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s" s="13">
         <v>11</v>
@@ -5447,28 +5313,27 @@
         <v>12</v>
       </c>
       <c r="D85" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E85" t="s" s="14">
+        <v>155</v>
+      </c>
+      <c r="F85" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I85" t="s" s="34">
         <v>154</v>
       </c>
-      <c r="F85" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G85" s="10"/>
-      <c r="H85" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I85" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J85" t="s" s="32">
-        <v>153</v>
-      </c>
     </row>
     <row r="86" ht="13.55" customHeight="1">
-      <c r="A86" t="s" s="26">
-        <v>155</v>
+      <c r="A86" t="s" s="28">
+        <v>156</v>
       </c>
       <c r="B86" t="s" s="13">
         <v>11</v>
@@ -5477,58 +5342,56 @@
         <v>12</v>
       </c>
       <c r="D86" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E86" t="s" s="14">
+        <v>157</v>
+      </c>
+      <c r="F86" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s" s="31">
+        <v>94</v>
+      </c>
+      <c r="I86" t="s" s="12">
         <v>156</v>
       </c>
-      <c r="F86" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G86" s="10"/>
-      <c r="H86" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I86" t="s" s="29">
-        <v>93</v>
-      </c>
-      <c r="J86" t="s" s="12">
-        <v>155</v>
-      </c>
     </row>
     <row r="87" ht="45.75" customHeight="1">
-      <c r="A87" t="s" s="35">
-        <v>157</v>
-      </c>
-      <c r="B87" t="s" s="36">
+      <c r="A87" t="s" s="37">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s" s="38">
         <v>11</v>
       </c>
       <c r="C87" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D87" t="s" s="14">
-        <v>127</v>
-      </c>
-      <c r="E87" t="s" s="37">
-        <v>158</v>
+        <v>128</v>
+      </c>
+      <c r="E87" t="s" s="39">
+        <v>159</v>
       </c>
       <c r="F87" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G87" s="10"/>
-      <c r="H87" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I87" t="s" s="38">
-        <v>93</v>
-      </c>
-      <c r="J87" t="s" s="39">
-        <v>159</v>
+      <c r="G87" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s" s="40">
+        <v>94</v>
+      </c>
+      <c r="I87" t="s" s="41">
+        <v>160</v>
       </c>
     </row>
     <row r="88" ht="237.75" customHeight="1">
-      <c r="A88" t="s" s="40">
-        <v>160</v>
+      <c r="A88" t="s" s="42">
+        <v>161</v>
       </c>
       <c r="B88" t="s" s="13">
         <v>11</v>
@@ -5536,43 +5399,41 @@
       <c r="C88" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D88" t="s" s="41">
+      <c r="D88" t="s" s="23">
+        <v>162</v>
+      </c>
+      <c r="E88" t="s" s="12">
+        <v>163</v>
+      </c>
+      <c r="F88" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I88" t="s" s="42">
         <v>161</v>
       </c>
-      <c r="E88" t="s" s="12">
-        <v>162</v>
-      </c>
-      <c r="F88" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="G88" s="10"/>
-      <c r="H88" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I88" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J88" t="s" s="40">
-        <v>160</v>
-      </c>
     </row>
     <row r="89" ht="13.55" customHeight="1">
-      <c r="A89" t="s" s="25">
-        <v>163</v>
-      </c>
-      <c r="B89" s="20"/>
+      <c r="A89" t="s" s="27">
+        <v>164</v>
+      </c>
+      <c r="B89" s="21"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="11"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="11"/>
+      <c r="I89" s="11"/>
     </row>
     <row r="90" ht="17" customHeight="1">
       <c r="A90" t="s" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s" s="13">
         <v>11</v>
@@ -5584,25 +5445,24 @@
         <v>13</v>
       </c>
       <c r="E90" t="s" s="14">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G90" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G90" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H90" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I90" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J90" t="s" s="31">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="I90" t="s" s="33">
+        <v>92</v>
       </c>
     </row>
     <row r="91" ht="17" customHeight="1">
       <c r="A91" t="s" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s" s="13">
         <v>11</v>
@@ -5614,25 +5474,24 @@
         <v>13</v>
       </c>
       <c r="E91" t="s" s="14">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G91" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G91" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H91" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I91" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J91" t="s" s="31">
         <v>94</v>
+      </c>
+      <c r="I91" t="s" s="33">
+        <v>95</v>
       </c>
     </row>
     <row r="92" ht="17" customHeight="1">
       <c r="A92" t="s" s="12">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s" s="13">
         <v>11</v>
@@ -5644,25 +5503,24 @@
         <v>13</v>
       </c>
       <c r="E92" t="s" s="14">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G92" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G92" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H92" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I92" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J92" t="s" s="31">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="I92" t="s" s="33">
+        <v>97</v>
       </c>
     </row>
     <row r="93" ht="17" customHeight="1">
       <c r="A93" t="s" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s" s="13">
         <v>11</v>
@@ -5674,25 +5532,24 @@
         <v>13</v>
       </c>
       <c r="E93" t="s" s="14">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G93" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G93" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H93" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I93" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J93" t="s" s="31">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="I93" t="s" s="33">
+        <v>99</v>
       </c>
     </row>
     <row r="94" ht="17" customHeight="1">
       <c r="A94" t="s" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s" s="13">
         <v>11</v>
@@ -5704,25 +5561,24 @@
         <v>13</v>
       </c>
       <c r="E94" t="s" s="14">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F94" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G94" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G94" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H94" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I94" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J94" t="s" s="31">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="I94" t="s" s="33">
+        <v>101</v>
       </c>
     </row>
     <row r="95" ht="17" customHeight="1">
       <c r="A95" t="s" s="12">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s" s="13">
         <v>11</v>
@@ -5734,25 +5590,24 @@
         <v>13</v>
       </c>
       <c r="E95" t="s" s="14">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G95" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G95" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H95" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I95" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J95" t="s" s="31">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="I95" t="s" s="33">
+        <v>103</v>
       </c>
     </row>
     <row r="96" ht="17" customHeight="1">
       <c r="A96" t="s" s="12">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s" s="13">
         <v>11</v>
@@ -5764,25 +5619,24 @@
         <v>13</v>
       </c>
       <c r="E96" t="s" s="14">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G96" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G96" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H96" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I96" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J96" t="s" s="31">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="I96" t="s" s="33">
+        <v>105</v>
       </c>
     </row>
     <row r="97" ht="17" customHeight="1">
       <c r="A97" t="s" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s" s="13">
         <v>11</v>
@@ -5794,25 +5648,24 @@
         <v>13</v>
       </c>
       <c r="E97" t="s" s="14">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F97" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G97" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G97" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H97" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I97" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J97" t="s" s="31">
-        <v>106</v>
+        <v>94</v>
+      </c>
+      <c r="I97" t="s" s="33">
+        <v>107</v>
       </c>
     </row>
     <row r="98" ht="17" customHeight="1">
       <c r="A98" t="s" s="12">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s" s="13">
         <v>11</v>
@@ -5824,25 +5677,24 @@
         <v>13</v>
       </c>
       <c r="E98" t="s" s="14">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F98" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G98" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G98" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H98" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I98" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J98" t="s" s="31">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="I98" t="s" s="33">
+        <v>109</v>
       </c>
     </row>
     <row r="99" ht="17" customHeight="1">
       <c r="A99" t="s" s="12">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s" s="13">
         <v>11</v>
@@ -5854,25 +5706,24 @@
         <v>13</v>
       </c>
       <c r="E99" t="s" s="14">
+        <v>112</v>
+      </c>
+      <c r="F99" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I99" t="s" s="33">
         <v>111</v>
-      </c>
-      <c r="F99" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G99" s="10"/>
-      <c r="H99" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I99" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J99" t="s" s="31">
-        <v>110</v>
       </c>
     </row>
     <row r="100" ht="17" customHeight="1">
       <c r="A100" t="s" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B100" t="s" s="13">
         <v>11</v>
@@ -5884,25 +5735,24 @@
         <v>13</v>
       </c>
       <c r="E100" t="s" s="14">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F100" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G100" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G100" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H100" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I100" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J100" t="s" s="31">
-        <v>112</v>
+        <v>94</v>
+      </c>
+      <c r="I100" t="s" s="33">
+        <v>113</v>
       </c>
     </row>
     <row r="101" ht="17" customHeight="1">
       <c r="A101" t="s" s="12">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s" s="13">
         <v>11</v>
@@ -5914,25 +5764,24 @@
         <v>13</v>
       </c>
       <c r="E101" t="s" s="14">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F101" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G101" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G101" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H101" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I101" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J101" t="s" s="31">
-        <v>114</v>
+        <v>94</v>
+      </c>
+      <c r="I101" t="s" s="33">
+        <v>115</v>
       </c>
     </row>
     <row r="102" ht="17" customHeight="1">
       <c r="A102" t="s" s="12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s" s="13">
         <v>11</v>
@@ -5944,25 +5793,24 @@
         <v>13</v>
       </c>
       <c r="E102" t="s" s="14">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F102" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G102" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G102" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H102" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I102" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J102" t="s" s="31">
-        <v>116</v>
+        <v>94</v>
+      </c>
+      <c r="I102" t="s" s="33">
+        <v>117</v>
       </c>
     </row>
     <row r="103" ht="17" customHeight="1">
       <c r="A103" t="s" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s" s="13">
         <v>11</v>
@@ -5974,25 +5822,24 @@
         <v>13</v>
       </c>
       <c r="E103" t="s" s="14">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F103" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G103" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G103" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H103" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I103" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J103" t="s" s="31">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="I103" t="s" s="33">
+        <v>119</v>
       </c>
     </row>
     <row r="104" ht="17" customHeight="1">
       <c r="A104" t="s" s="12">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s" s="13">
         <v>11</v>
@@ -6004,25 +5851,24 @@
         <v>13</v>
       </c>
       <c r="E104" t="s" s="14">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F104" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G104" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G104" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H104" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I104" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J104" t="s" s="31">
-        <v>120</v>
+        <v>94</v>
+      </c>
+      <c r="I104" t="s" s="33">
+        <v>121</v>
       </c>
     </row>
     <row r="105" ht="17" customHeight="1">
       <c r="A105" t="s" s="12">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s" s="13">
         <v>11</v>
@@ -6034,25 +5880,24 @@
         <v>13</v>
       </c>
       <c r="E105" t="s" s="14">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F105" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G105" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G105" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H105" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I105" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J105" t="s" s="32">
-        <v>122</v>
+        <v>94</v>
+      </c>
+      <c r="I105" t="s" s="34">
+        <v>123</v>
       </c>
     </row>
     <row r="106" ht="13.55" customHeight="1">
-      <c r="A106" t="s" s="26">
-        <v>124</v>
+      <c r="A106" t="s" s="28">
+        <v>125</v>
       </c>
       <c r="B106" t="s" s="13">
         <v>11</v>
@@ -6064,25 +5909,24 @@
         <v>13</v>
       </c>
       <c r="E106" t="s" s="14">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F106" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G106" s="10"/>
-      <c r="H106" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I106" t="s" s="29">
-        <v>93</v>
-      </c>
-      <c r="J106" t="s" s="12">
-        <v>124</v>
+        <v>27</v>
+      </c>
+      <c r="G106" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s" s="31">
+        <v>94</v>
+      </c>
+      <c r="I106" t="s" s="12">
+        <v>125</v>
       </c>
     </row>
     <row r="107" ht="17" customHeight="1">
-      <c r="A107" t="s" s="33">
-        <v>126</v>
+      <c r="A107" t="s" s="35">
+        <v>127</v>
       </c>
       <c r="B107" t="s" s="13">
         <v>11</v>
@@ -6091,28 +5935,27 @@
         <v>12</v>
       </c>
       <c r="D107" t="s" s="14">
+        <v>128</v>
+      </c>
+      <c r="E107" t="s" s="14">
+        <v>181</v>
+      </c>
+      <c r="F107" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I107" t="s" s="36">
         <v>127</v>
-      </c>
-      <c r="E107" t="s" s="14">
-        <v>180</v>
-      </c>
-      <c r="F107" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G107" s="10"/>
-      <c r="H107" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I107" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J107" t="s" s="34">
-        <v>126</v>
       </c>
     </row>
     <row r="108" ht="17" customHeight="1">
       <c r="A108" t="s" s="12">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s" s="13">
         <v>11</v>
@@ -6121,28 +5964,27 @@
         <v>12</v>
       </c>
       <c r="D108" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E108" t="s" s="14">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F108" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G108" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G108" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H108" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I108" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J108" t="s" s="31">
-        <v>129</v>
+        <v>94</v>
+      </c>
+      <c r="I108" t="s" s="33">
+        <v>130</v>
       </c>
     </row>
     <row r="109" ht="17" customHeight="1">
       <c r="A109" t="s" s="12">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s" s="13">
         <v>11</v>
@@ -6151,28 +5993,27 @@
         <v>12</v>
       </c>
       <c r="D109" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E109" t="s" s="14">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F109" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G109" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G109" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H109" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I109" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J109" t="s" s="31">
-        <v>131</v>
+        <v>94</v>
+      </c>
+      <c r="I109" t="s" s="33">
+        <v>132</v>
       </c>
     </row>
     <row r="110" ht="17" customHeight="1">
       <c r="A110" t="s" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B110" t="s" s="13">
         <v>11</v>
@@ -6181,28 +6022,27 @@
         <v>12</v>
       </c>
       <c r="D110" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E110" t="s" s="14">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F110" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G110" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G110" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H110" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I110" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J110" t="s" s="31">
-        <v>133</v>
+        <v>94</v>
+      </c>
+      <c r="I110" t="s" s="33">
+        <v>134</v>
       </c>
     </row>
     <row r="111" ht="17" customHeight="1">
       <c r="A111" t="s" s="12">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B111" t="s" s="13">
         <v>11</v>
@@ -6211,28 +6051,27 @@
         <v>12</v>
       </c>
       <c r="D111" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E111" t="s" s="14">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F111" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G111" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G111" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H111" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I111" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J111" t="s" s="31">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="I111" t="s" s="33">
+        <v>136</v>
       </c>
     </row>
     <row r="112" ht="17" customHeight="1">
       <c r="A112" t="s" s="12">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B112" t="s" s="13">
         <v>11</v>
@@ -6241,28 +6080,27 @@
         <v>12</v>
       </c>
       <c r="D112" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E112" t="s" s="14">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F112" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G112" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G112" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H112" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I112" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J112" t="s" s="31">
-        <v>137</v>
+        <v>94</v>
+      </c>
+      <c r="I112" t="s" s="33">
+        <v>138</v>
       </c>
     </row>
     <row r="113" ht="17" customHeight="1">
       <c r="A113" t="s" s="12">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" t="s" s="13">
         <v>11</v>
@@ -6271,28 +6109,27 @@
         <v>12</v>
       </c>
       <c r="D113" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E113" t="s" s="14">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F113" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G113" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G113" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H113" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I113" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J113" t="s" s="31">
-        <v>139</v>
+        <v>94</v>
+      </c>
+      <c r="I113" t="s" s="33">
+        <v>140</v>
       </c>
     </row>
     <row r="114" ht="17" customHeight="1">
       <c r="A114" t="s" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s" s="13">
         <v>11</v>
@@ -6301,28 +6138,27 @@
         <v>12</v>
       </c>
       <c r="D114" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E114" t="s" s="14">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F114" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G114" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G114" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H114" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I114" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J114" t="s" s="31">
-        <v>141</v>
+        <v>94</v>
+      </c>
+      <c r="I114" t="s" s="33">
+        <v>142</v>
       </c>
     </row>
     <row r="115" ht="17" customHeight="1">
       <c r="A115" t="s" s="12">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s" s="13">
         <v>11</v>
@@ -6331,28 +6167,27 @@
         <v>12</v>
       </c>
       <c r="D115" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E115" t="s" s="14">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F115" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G115" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G115" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H115" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I115" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J115" t="s" s="31">
-        <v>143</v>
+        <v>94</v>
+      </c>
+      <c r="I115" t="s" s="33">
+        <v>144</v>
       </c>
     </row>
     <row r="116" ht="17" customHeight="1">
       <c r="A116" t="s" s="12">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B116" t="s" s="13">
         <v>11</v>
@@ -6361,28 +6196,27 @@
         <v>12</v>
       </c>
       <c r="D116" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E116" t="s" s="14">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F116" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G116" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G116" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H116" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I116" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J116" t="s" s="31">
-        <v>145</v>
+        <v>94</v>
+      </c>
+      <c r="I116" t="s" s="33">
+        <v>146</v>
       </c>
     </row>
     <row r="117" ht="17" customHeight="1">
       <c r="A117" t="s" s="12">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B117" t="s" s="13">
         <v>11</v>
@@ -6391,28 +6225,27 @@
         <v>12</v>
       </c>
       <c r="D117" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E117" t="s" s="14">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F117" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G117" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G117" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H117" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I117" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J117" t="s" s="31">
-        <v>147</v>
+        <v>94</v>
+      </c>
+      <c r="I117" t="s" s="33">
+        <v>148</v>
       </c>
     </row>
     <row r="118" ht="30" customHeight="1">
       <c r="A118" t="s" s="12">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B118" t="s" s="13">
         <v>11</v>
@@ -6421,28 +6254,27 @@
         <v>12</v>
       </c>
       <c r="D118" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E118" t="s" s="14">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F118" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G118" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G118" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H118" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I118" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J118" t="s" s="31">
-        <v>149</v>
+        <v>94</v>
+      </c>
+      <c r="I118" t="s" s="33">
+        <v>150</v>
       </c>
     </row>
     <row r="119" ht="17" customHeight="1">
       <c r="A119" t="s" s="12">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s" s="13">
         <v>11</v>
@@ -6451,28 +6283,27 @@
         <v>12</v>
       </c>
       <c r="D119" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E119" t="s" s="14">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F119" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G119" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G119" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H119" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I119" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J119" t="s" s="31">
-        <v>151</v>
+        <v>94</v>
+      </c>
+      <c r="I119" t="s" s="33">
+        <v>152</v>
       </c>
     </row>
     <row r="120" ht="17" customHeight="1">
       <c r="A120" t="s" s="12">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B120" t="s" s="13">
         <v>11</v>
@@ -6481,28 +6312,27 @@
         <v>12</v>
       </c>
       <c r="D120" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E120" t="s" s="14">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F120" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G120" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G120" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H120" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I120" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J120" t="s" s="32">
-        <v>153</v>
+        <v>94</v>
+      </c>
+      <c r="I120" t="s" s="34">
+        <v>154</v>
       </c>
     </row>
     <row r="121" ht="13.55" customHeight="1">
-      <c r="A121" t="s" s="26">
-        <v>155</v>
+      <c r="A121" t="s" s="28">
+        <v>156</v>
       </c>
       <c r="B121" t="s" s="13">
         <v>11</v>
@@ -6511,58 +6341,56 @@
         <v>12</v>
       </c>
       <c r="D121" t="s" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E121" t="s" s="14">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F121" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G121" s="10"/>
-      <c r="H121" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I121" t="s" s="29">
-        <v>93</v>
-      </c>
-      <c r="J121" t="s" s="12">
-        <v>155</v>
+        <v>27</v>
+      </c>
+      <c r="G121" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H121" t="s" s="31">
+        <v>94</v>
+      </c>
+      <c r="I121" t="s" s="12">
+        <v>156</v>
       </c>
     </row>
     <row r="122" ht="45" customHeight="1">
-      <c r="A122" t="s" s="35">
-        <v>195</v>
-      </c>
-      <c r="B122" t="s" s="36">
+      <c r="A122" t="s" s="37">
+        <v>196</v>
+      </c>
+      <c r="B122" t="s" s="38">
         <v>11</v>
       </c>
       <c r="C122" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D122" t="s" s="14">
-        <v>127</v>
-      </c>
-      <c r="E122" t="s" s="37">
-        <v>196</v>
+        <v>128</v>
+      </c>
+      <c r="E122" t="s" s="39">
+        <v>197</v>
       </c>
       <c r="F122" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G122" s="10"/>
-      <c r="H122" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I122" t="s" s="38">
-        <v>93</v>
-      </c>
-      <c r="J122" t="s" s="39">
-        <v>159</v>
+        <v>27</v>
+      </c>
+      <c r="G122" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H122" t="s" s="40">
+        <v>94</v>
+      </c>
+      <c r="I122" t="s" s="41">
+        <v>160</v>
       </c>
     </row>
     <row r="123" ht="178.5" customHeight="1">
-      <c r="A123" t="s" s="40">
-        <v>160</v>
+      <c r="A123" t="s" s="42">
+        <v>161</v>
       </c>
       <c r="B123" t="s" s="13">
         <v>11</v>
@@ -6570,43 +6398,41 @@
       <c r="C123" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D123" t="s" s="41">
+      <c r="D123" t="s" s="23">
+        <v>162</v>
+      </c>
+      <c r="E123" t="s" s="12">
+        <v>198</v>
+      </c>
+      <c r="F123" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H123" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I123" t="s" s="42">
         <v>161</v>
       </c>
-      <c r="E123" t="s" s="12">
-        <v>197</v>
-      </c>
-      <c r="F123" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="G123" s="10"/>
-      <c r="H123" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I123" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="J123" t="s" s="40">
-        <v>160</v>
-      </c>
     </row>
     <row r="124" ht="21.75" customHeight="1">
-      <c r="A124" t="s" s="42">
-        <v>198</v>
-      </c>
-      <c r="B124" s="20"/>
+      <c r="A124" t="s" s="43">
+        <v>199</v>
+      </c>
+      <c r="B124" s="21"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
-      <c r="E124" s="43"/>
+      <c r="E124" s="44"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="46"/>
     </row>
     <row r="125" ht="21.75" customHeight="1">
       <c r="A125" t="s" s="17">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B125" t="s" s="13">
         <v>11</v>
@@ -6615,58 +6441,56 @@
         <v>12</v>
       </c>
       <c r="D125" t="s" s="14">
-        <v>161</v>
-      </c>
-      <c r="E125" t="s" s="46">
+        <v>162</v>
+      </c>
+      <c r="E125" t="s" s="47">
+        <v>201</v>
+      </c>
+      <c r="F125" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G125" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H125" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I125" t="s" s="18">
         <v>200</v>
       </c>
-      <c r="F125" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G125" s="10"/>
-      <c r="H125" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I125" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J125" t="s" s="18">
-        <v>199</v>
-      </c>
     </row>
     <row r="126" ht="84.75" customHeight="1">
-      <c r="A126" t="s" s="47">
+      <c r="A126" t="s" s="48">
+        <v>203</v>
+      </c>
+      <c r="B126" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s" s="23">
+        <v>162</v>
+      </c>
+      <c r="E126" t="s" s="12">
+        <v>204</v>
+      </c>
+      <c r="F126" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s" s="15">
         <v>202</v>
       </c>
-      <c r="B126" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="C126" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D126" t="s" s="41">
-        <v>161</v>
-      </c>
-      <c r="E126" t="s" s="12">
+      <c r="I126" t="s" s="48">
         <v>203</v>
-      </c>
-      <c r="F126" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="G126" s="10"/>
-      <c r="H126" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I126" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J126" t="s" s="47">
-        <v>202</v>
       </c>
     </row>
     <row r="127" ht="30" customHeight="1">
       <c r="A127" t="s" s="17">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B127" t="s" s="13">
         <v>11</v>
@@ -6674,29 +6498,28 @@
       <c r="C127" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D127" t="s" s="41">
-        <v>161</v>
+      <c r="D127" t="s" s="23">
+        <v>162</v>
       </c>
       <c r="E127" t="s" s="12">
+        <v>206</v>
+      </c>
+      <c r="F127" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I127" t="s" s="17">
         <v>205</v>
-      </c>
-      <c r="F127" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="G127" s="10"/>
-      <c r="H127" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I127" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J127" t="s" s="17">
-        <v>204</v>
       </c>
     </row>
     <row r="128" ht="46.5" customHeight="1">
       <c r="A128" t="s" s="17">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B128" t="s" s="13">
         <v>11</v>
@@ -6704,29 +6527,28 @@
       <c r="C128" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D128" t="s" s="41">
-        <v>161</v>
+      <c r="D128" t="s" s="23">
+        <v>162</v>
       </c>
       <c r="E128" t="s" s="12">
+        <v>208</v>
+      </c>
+      <c r="F128" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I128" t="s" s="17">
         <v>207</v>
-      </c>
-      <c r="F128" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="G128" s="10"/>
-      <c r="H128" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I128" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J128" t="s" s="17">
-        <v>206</v>
       </c>
     </row>
     <row r="129" ht="66" customHeight="1">
       <c r="A129" t="s" s="17">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B129" t="s" s="13">
         <v>11</v>
@@ -6734,29 +6556,28 @@
       <c r="C129" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D129" t="s" s="41">
-        <v>161</v>
+      <c r="D129" t="s" s="23">
+        <v>162</v>
       </c>
       <c r="E129" t="s" s="12">
+        <v>210</v>
+      </c>
+      <c r="F129" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I129" t="s" s="17">
         <v>209</v>
-      </c>
-      <c r="F129" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="G129" s="10"/>
-      <c r="H129" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I129" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J129" t="s" s="17">
-        <v>208</v>
       </c>
     </row>
     <row r="130" ht="33" customHeight="1">
       <c r="A130" t="s" s="17">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B130" t="s" s="13">
         <v>11</v>
@@ -6765,132 +6586,127 @@
         <v>12</v>
       </c>
       <c r="D130" t="s" s="14">
-        <v>161</v>
-      </c>
-      <c r="E130" t="s" s="48">
+        <v>162</v>
+      </c>
+      <c r="E130" t="s" s="49">
+        <v>212</v>
+      </c>
+      <c r="F130" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H130" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I130" t="s" s="17">
         <v>211</v>
-      </c>
-      <c r="F130" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G130" s="10"/>
-      <c r="H130" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I130" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J130" t="s" s="17">
-        <v>210</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
       <c r="A131" t="s" s="17">
-        <v>212</v>
-      </c>
-      <c r="B131" t="s" s="49">
-        <v>11</v>
-      </c>
-      <c r="C131" t="s" s="37">
-        <v>12</v>
-      </c>
-      <c r="D131" t="s" s="37">
-        <v>161</v>
+        <v>213</v>
+      </c>
+      <c r="B131" t="s" s="50">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s" s="39">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s" s="39">
+        <v>162</v>
       </c>
       <c r="E131" t="s" s="14">
+        <v>214</v>
+      </c>
+      <c r="F131" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H131" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I131" t="s" s="17">
         <v>213</v>
       </c>
-      <c r="F131" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G131" s="10"/>
-      <c r="H131" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I131" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J131" t="s" s="17">
-        <v>212</v>
-      </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="A132" t="s" s="42">
-        <v>214</v>
-      </c>
-      <c r="B132" s="50"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="51"/>
+      <c r="A132" t="s" s="43">
+        <v>215</v>
+      </c>
+      <c r="B132" s="51"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
       <c r="E132" s="9"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="11"/>
+      <c r="I132" s="11"/>
     </row>
     <row r="133" ht="21.75" customHeight="1">
       <c r="A133" t="s" s="17">
-        <v>199</v>
-      </c>
-      <c r="B133" t="s" s="52">
-        <v>11</v>
-      </c>
-      <c r="C133" t="s" s="53">
-        <v>12</v>
-      </c>
-      <c r="D133" t="s" s="53">
-        <v>161</v>
-      </c>
-      <c r="E133" t="s" s="46">
         <v>200</v>
       </c>
+      <c r="B133" t="s" s="53">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s" s="54">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s" s="54">
+        <v>162</v>
+      </c>
+      <c r="E133" t="s" s="47">
+        <v>201</v>
+      </c>
       <c r="F133" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G133" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G133" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H133" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I133" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J133" t="s" s="18">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="I133" t="s" s="18">
+        <v>200</v>
       </c>
     </row>
     <row r="134" ht="84.75" customHeight="1">
-      <c r="A134" t="s" s="47">
+      <c r="A134" t="s" s="48">
+        <v>203</v>
+      </c>
+      <c r="B134" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s" s="23">
+        <v>162</v>
+      </c>
+      <c r="E134" t="s" s="12">
+        <v>204</v>
+      </c>
+      <c r="F134" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s" s="15">
         <v>202</v>
       </c>
-      <c r="B134" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="C134" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D134" t="s" s="41">
-        <v>161</v>
-      </c>
-      <c r="E134" t="s" s="12">
+      <c r="I134" t="s" s="48">
         <v>203</v>
-      </c>
-      <c r="F134" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="G134" s="10"/>
-      <c r="H134" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I134" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J134" t="s" s="47">
-        <v>202</v>
       </c>
     </row>
     <row r="135" ht="30" customHeight="1">
       <c r="A135" t="s" s="17">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s" s="13">
         <v>11</v>
@@ -6898,29 +6714,28 @@
       <c r="C135" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D135" t="s" s="41">
-        <v>161</v>
+      <c r="D135" t="s" s="23">
+        <v>162</v>
       </c>
       <c r="E135" t="s" s="12">
+        <v>206</v>
+      </c>
+      <c r="F135" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H135" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I135" t="s" s="17">
         <v>205</v>
-      </c>
-      <c r="F135" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="G135" s="10"/>
-      <c r="H135" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I135" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J135" t="s" s="17">
-        <v>204</v>
       </c>
     </row>
     <row r="136" ht="46.5" customHeight="1">
       <c r="A136" t="s" s="17">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B136" t="s" s="13">
         <v>11</v>
@@ -6928,29 +6743,28 @@
       <c r="C136" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D136" t="s" s="41">
-        <v>161</v>
+      <c r="D136" t="s" s="23">
+        <v>162</v>
       </c>
       <c r="E136" t="s" s="12">
+        <v>208</v>
+      </c>
+      <c r="F136" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="G136" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H136" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I136" t="s" s="17">
         <v>207</v>
-      </c>
-      <c r="F136" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="G136" s="10"/>
-      <c r="H136" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I136" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J136" t="s" s="17">
-        <v>206</v>
       </c>
     </row>
     <row r="137" ht="66" customHeight="1">
       <c r="A137" t="s" s="17">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B137" t="s" s="13">
         <v>11</v>
@@ -6958,29 +6772,28 @@
       <c r="C137" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D137" t="s" s="41">
-        <v>161</v>
+      <c r="D137" t="s" s="23">
+        <v>162</v>
       </c>
       <c r="E137" t="s" s="12">
+        <v>210</v>
+      </c>
+      <c r="F137" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="G137" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I137" t="s" s="17">
         <v>209</v>
-      </c>
-      <c r="F137" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="G137" s="10"/>
-      <c r="H137" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I137" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J137" t="s" s="17">
-        <v>208</v>
       </c>
     </row>
     <row r="138" ht="33" customHeight="1">
       <c r="A138" t="s" s="17">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B138" t="s" s="13">
         <v>11</v>
@@ -6989,28 +6802,27 @@
         <v>12</v>
       </c>
       <c r="D138" t="s" s="14">
-        <v>161</v>
-      </c>
-      <c r="E138" t="s" s="48">
+        <v>162</v>
+      </c>
+      <c r="E138" t="s" s="49">
+        <v>212</v>
+      </c>
+      <c r="F138" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G138" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H138" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I138" t="s" s="17">
         <v>211</v>
-      </c>
-      <c r="F138" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G138" s="10"/>
-      <c r="H138" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I138" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J138" t="s" s="17">
-        <v>210</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
       <c r="A139" t="s" s="17">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s" s="13">
         <v>11</v>
@@ -7019,42 +6831,40 @@
         <v>12</v>
       </c>
       <c r="D139" t="s" s="14">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E139" t="s" s="14">
+        <v>214</v>
+      </c>
+      <c r="F139" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G139" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H139" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="I139" t="s" s="17">
         <v>213</v>
       </c>
-      <c r="F139" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G139" s="10"/>
-      <c r="H139" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I139" t="s" s="15">
-        <v>201</v>
-      </c>
-      <c r="J139" t="s" s="17">
-        <v>212</v>
-      </c>
     </row>
     <row r="140" ht="13.55" customHeight="1">
-      <c r="A140" t="s" s="54">
-        <v>215</v>
-      </c>
-      <c r="B140" s="20"/>
+      <c r="A140" t="s" s="55">
+        <v>216</v>
+      </c>
+      <c r="B140" s="21"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="55"/>
+      <c r="I140" s="56"/>
     </row>
     <row r="141" ht="13.55" customHeight="1">
       <c r="A141" t="s" s="17">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B141" t="s" s="13">
         <v>11</v>
@@ -7063,58 +6873,56 @@
         <v>12</v>
       </c>
       <c r="D141" t="s" s="14">
+        <v>218</v>
+      </c>
+      <c r="E141" t="s" s="14">
+        <v>219</v>
+      </c>
+      <c r="F141" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H141" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="I141" t="s" s="17">
         <v>217</v>
-      </c>
-      <c r="E141" t="s" s="14">
-        <v>218</v>
-      </c>
-      <c r="F141" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G141" s="10"/>
-      <c r="H141" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I141" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J141" t="s" s="17">
-        <v>216</v>
       </c>
     </row>
     <row r="142" ht="13.55" customHeight="1">
       <c r="A142" t="s" s="17">
+        <v>221</v>
+      </c>
+      <c r="B142" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s" s="14">
+        <v>218</v>
+      </c>
+      <c r="E142" t="s" s="14">
+        <v>222</v>
+      </c>
+      <c r="F142" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s" s="15">
         <v>220</v>
       </c>
-      <c r="B142" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D142" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E142" t="s" s="14">
+      <c r="I142" t="s" s="17">
         <v>221</v>
-      </c>
-      <c r="F142" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G142" s="10"/>
-      <c r="H142" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I142" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J142" t="s" s="17">
-        <v>220</v>
       </c>
     </row>
     <row r="143" ht="17" customHeight="1">
       <c r="A143" t="s" s="12">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B143" t="s" s="13">
         <v>11</v>
@@ -7123,28 +6931,27 @@
         <v>12</v>
       </c>
       <c r="D143" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E143" t="s" s="14">
+        <v>224</v>
+      </c>
+      <c r="F143" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="I143" t="s" s="36">
         <v>223</v>
-      </c>
-      <c r="F143" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G143" s="10"/>
-      <c r="H143" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I143" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J143" t="s" s="34">
-        <v>222</v>
       </c>
     </row>
     <row r="144" ht="17" customHeight="1">
       <c r="A144" t="s" s="12">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B144" t="s" s="13">
         <v>11</v>
@@ -7153,28 +6960,27 @@
         <v>12</v>
       </c>
       <c r="D144" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E144" t="s" s="14">
+        <v>226</v>
+      </c>
+      <c r="F144" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H144" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="I144" t="s" s="33">
         <v>225</v>
-      </c>
-      <c r="F144" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G144" s="10"/>
-      <c r="H144" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I144" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J144" t="s" s="31">
-        <v>224</v>
       </c>
     </row>
     <row r="145" ht="17" customHeight="1">
       <c r="A145" t="s" s="12">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B145" t="s" s="13">
         <v>11</v>
@@ -7183,28 +6989,27 @@
         <v>12</v>
       </c>
       <c r="D145" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E145" t="s" s="14">
+        <v>228</v>
+      </c>
+      <c r="F145" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H145" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="I145" t="s" s="33">
         <v>227</v>
-      </c>
-      <c r="F145" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G145" s="10"/>
-      <c r="H145" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I145" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J145" t="s" s="31">
-        <v>226</v>
       </c>
     </row>
     <row r="146" ht="17" customHeight="1">
       <c r="A146" t="s" s="12">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B146" t="s" s="13">
         <v>11</v>
@@ -7213,28 +7018,27 @@
         <v>12</v>
       </c>
       <c r="D146" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E146" t="s" s="14">
+        <v>230</v>
+      </c>
+      <c r="F146" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="I146" t="s" s="33">
         <v>229</v>
-      </c>
-      <c r="F146" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G146" s="10"/>
-      <c r="H146" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I146" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J146" t="s" s="31">
-        <v>228</v>
       </c>
     </row>
     <row r="147" ht="17" customHeight="1">
       <c r="A147" t="s" s="12">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B147" t="s" s="13">
         <v>11</v>
@@ -7243,28 +7047,27 @@
         <v>12</v>
       </c>
       <c r="D147" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E147" t="s" s="14">
+        <v>232</v>
+      </c>
+      <c r="F147" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H147" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="I147" t="s" s="33">
         <v>231</v>
-      </c>
-      <c r="F147" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G147" s="10"/>
-      <c r="H147" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I147" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J147" t="s" s="31">
-        <v>230</v>
       </c>
     </row>
     <row r="148" ht="17" customHeight="1">
       <c r="A148" t="s" s="12">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s" s="13">
         <v>11</v>
@@ -7273,60 +7076,58 @@
         <v>12</v>
       </c>
       <c r="D148" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E148" t="s" s="14">
+        <v>234</v>
+      </c>
+      <c r="F148" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H148" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="I148" t="s" s="33">
         <v>233</v>
-      </c>
-      <c r="F148" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G148" s="10"/>
-      <c r="H148" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I148" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J148" t="s" s="31">
-        <v>232</v>
       </c>
     </row>
     <row r="149" ht="17" customHeight="1">
       <c r="A149" t="s" s="12">
-        <v>234</v>
-      </c>
-      <c r="B149" t="s" s="49">
+        <v>235</v>
+      </c>
+      <c r="B149" t="s" s="50">
         <v>11</v>
       </c>
       <c r="C149" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D149" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E149" t="s" s="14">
+        <v>236</v>
+      </c>
+      <c r="F149" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="I149" t="s" s="33">
         <v>235</v>
       </c>
-      <c r="F149" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G149" s="10"/>
-      <c r="H149" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I149" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J149" t="s" s="31">
-        <v>234</v>
-      </c>
     </row>
     <row r="150" ht="13.55" customHeight="1">
-      <c r="A150" t="s" s="54">
-        <v>236</v>
-      </c>
-      <c r="B150" s="56"/>
+      <c r="A150" t="s" s="55">
+        <v>237</v>
+      </c>
+      <c r="B150" s="57"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
@@ -7334,71 +7135,68 @@
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
     </row>
     <row r="151" ht="13.55" customHeight="1">
       <c r="A151" t="s" s="17">
-        <v>216</v>
-      </c>
-      <c r="B151" t="s" s="57">
+        <v>217</v>
+      </c>
+      <c r="B151" t="s" s="58">
         <v>11</v>
       </c>
       <c r="C151" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D151" t="s" s="14">
+        <v>218</v>
+      </c>
+      <c r="E151" t="s" s="14">
+        <v>238</v>
+      </c>
+      <c r="F151" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="I151" t="s" s="18">
         <v>217</v>
-      </c>
-      <c r="E151" t="s" s="14">
-        <v>237</v>
-      </c>
-      <c r="F151" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G151" s="10"/>
-      <c r="H151" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I151" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J151" t="s" s="18">
-        <v>216</v>
       </c>
     </row>
     <row r="152" ht="13.55" customHeight="1">
       <c r="A152" t="s" s="17">
+        <v>221</v>
+      </c>
+      <c r="B152" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s" s="14">
+        <v>218</v>
+      </c>
+      <c r="E152" t="s" s="14">
+        <v>239</v>
+      </c>
+      <c r="F152" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G152" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H152" t="s" s="15">
         <v>220</v>
       </c>
-      <c r="B152" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="C152" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D152" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E152" t="s" s="14">
-        <v>238</v>
-      </c>
-      <c r="F152" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G152" s="10"/>
-      <c r="H152" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I152" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J152" t="s" s="17">
-        <v>220</v>
+      <c r="I152" t="s" s="17">
+        <v>221</v>
       </c>
     </row>
     <row r="153" ht="17" customHeight="1">
       <c r="A153" t="s" s="12">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B153" t="s" s="13">
         <v>11</v>
@@ -7407,28 +7205,27 @@
         <v>12</v>
       </c>
       <c r="D153" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E153" t="s" s="14">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F153" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G153" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G153" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H153" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I153" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J153" t="s" s="34">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="I153" t="s" s="36">
+        <v>223</v>
       </c>
     </row>
     <row r="154" ht="17" customHeight="1">
       <c r="A154" t="s" s="12">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B154" t="s" s="13">
         <v>11</v>
@@ -7437,28 +7234,27 @@
         <v>12</v>
       </c>
       <c r="D154" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E154" t="s" s="14">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F154" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G154" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G154" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H154" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I154" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J154" t="s" s="31">
-        <v>224</v>
+        <v>220</v>
+      </c>
+      <c r="I154" t="s" s="33">
+        <v>225</v>
       </c>
     </row>
     <row r="155" ht="17" customHeight="1">
       <c r="A155" t="s" s="12">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B155" t="s" s="13">
         <v>11</v>
@@ -7467,28 +7263,27 @@
         <v>12</v>
       </c>
       <c r="D155" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E155" t="s" s="14">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F155" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G155" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G155" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H155" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I155" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J155" t="s" s="31">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="I155" t="s" s="33">
+        <v>227</v>
       </c>
     </row>
     <row r="156" ht="17" customHeight="1">
       <c r="A156" t="s" s="12">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B156" t="s" s="13">
         <v>11</v>
@@ -7497,28 +7292,27 @@
         <v>12</v>
       </c>
       <c r="D156" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E156" t="s" s="14">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F156" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G156" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G156" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H156" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I156" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J156" t="s" s="31">
-        <v>228</v>
+        <v>220</v>
+      </c>
+      <c r="I156" t="s" s="33">
+        <v>229</v>
       </c>
     </row>
     <row r="157" ht="17" customHeight="1">
       <c r="A157" t="s" s="12">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B157" t="s" s="13">
         <v>11</v>
@@ -7527,28 +7321,27 @@
         <v>12</v>
       </c>
       <c r="D157" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E157" t="s" s="14">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F157" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G157" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G157" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H157" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I157" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J157" t="s" s="31">
-        <v>230</v>
+        <v>220</v>
+      </c>
+      <c r="I157" t="s" s="33">
+        <v>231</v>
       </c>
     </row>
     <row r="158" ht="17" customHeight="1">
       <c r="A158" t="s" s="12">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B158" t="s" s="13">
         <v>11</v>
@@ -7557,28 +7350,27 @@
         <v>12</v>
       </c>
       <c r="D158" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E158" t="s" s="14">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F158" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G158" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G158" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H158" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I158" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J158" t="s" s="31">
-        <v>232</v>
+        <v>220</v>
+      </c>
+      <c r="I158" t="s" s="33">
+        <v>233</v>
       </c>
     </row>
     <row r="159" ht="17" customHeight="1">
       <c r="A159" t="s" s="12">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B159" t="s" s="13">
         <v>11</v>
@@ -7587,28 +7379,27 @@
         <v>12</v>
       </c>
       <c r="D159" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E159" t="s" s="14">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F159" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G159" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G159" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H159" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I159" t="s" s="15">
-        <v>219</v>
-      </c>
-      <c r="J159" t="s" s="31">
-        <v>234</v>
+        <v>220</v>
+      </c>
+      <c r="I159" t="s" s="33">
+        <v>235</v>
       </c>
     </row>
     <row r="160" ht="13.55" customHeight="1">
-      <c r="A160" t="s" s="58">
-        <v>246</v>
+      <c r="A160" t="s" s="59">
+        <v>247</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
@@ -7617,162 +7408,156 @@
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="59"/>
+      <c r="I160" s="60"/>
     </row>
     <row r="161" ht="13.55" customHeight="1">
-      <c r="A161" t="s" s="60">
-        <v>247</v>
-      </c>
-      <c r="B161" t="s" s="36">
+      <c r="A161" t="s" s="61">
+        <v>248</v>
+      </c>
+      <c r="B161" t="s" s="38">
         <v>11</v>
       </c>
       <c r="C161" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D161" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E161" t="s" s="14">
+        <v>249</v>
+      </c>
+      <c r="F161" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s" s="40">
+        <v>250</v>
+      </c>
+      <c r="I161" t="s" s="62">
         <v>248</v>
       </c>
-      <c r="F161" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G161" s="10"/>
-      <c r="H161" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I161" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J161" t="s" s="61">
-        <v>247</v>
-      </c>
     </row>
     <row r="162" ht="45.75" customHeight="1">
-      <c r="A162" t="s" s="62">
+      <c r="A162" t="s" s="63">
+        <v>251</v>
+      </c>
+      <c r="B162" t="s" s="38">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s" s="14">
+        <v>218</v>
+      </c>
+      <c r="E162" t="s" s="14">
+        <v>252</v>
+      </c>
+      <c r="F162" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s" s="40">
         <v>250</v>
       </c>
-      <c r="B162" t="s" s="36">
-        <v>11</v>
-      </c>
-      <c r="C162" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D162" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E162" t="s" s="14">
+      <c r="I162" t="s" s="62">
         <v>251</v>
       </c>
-      <c r="F162" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G162" s="10"/>
-      <c r="H162" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I162" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J162" t="s" s="61">
+    </row>
+    <row r="163" ht="30.75" customHeight="1">
+      <c r="A163" t="s" s="64">
+        <v>253</v>
+      </c>
+      <c r="B163" t="s" s="38">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s" s="14">
+        <v>218</v>
+      </c>
+      <c r="E163" t="s" s="14">
+        <v>254</v>
+      </c>
+      <c r="F163" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H163" t="s" s="40">
         <v>250</v>
       </c>
-    </row>
-    <row r="163" ht="30.75" customHeight="1">
-      <c r="A163" t="s" s="63">
-        <v>252</v>
-      </c>
-      <c r="B163" t="s" s="36">
-        <v>11</v>
-      </c>
-      <c r="C163" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D163" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E163" t="s" s="14">
+      <c r="I163" t="s" s="65">
         <v>253</v>
       </c>
-      <c r="F163" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G163" s="10"/>
-      <c r="H163" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I163" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J163" t="s" s="64">
-        <v>252</v>
-      </c>
     </row>
     <row r="164" ht="13.55" customHeight="1">
-      <c r="A164" t="s" s="62">
-        <v>254</v>
-      </c>
-      <c r="B164" t="s" s="36">
+      <c r="A164" t="s" s="63">
+        <v>255</v>
+      </c>
+      <c r="B164" t="s" s="38">
         <v>11</v>
       </c>
       <c r="C164" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D164" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E164" t="s" s="14">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F164" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G164" s="10"/>
-      <c r="H164" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I164" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J164" t="s" s="61">
-        <v>256</v>
+      <c r="G164" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H164" t="s" s="40">
+        <v>250</v>
+      </c>
+      <c r="I164" t="s" s="62">
+        <v>257</v>
       </c>
     </row>
     <row r="165" ht="13.55" customHeight="1">
-      <c r="A165" t="s" s="62">
-        <v>257</v>
-      </c>
-      <c r="B165" t="s" s="36">
+      <c r="A165" t="s" s="63">
+        <v>258</v>
+      </c>
+      <c r="B165" t="s" s="38">
         <v>11</v>
       </c>
       <c r="C165" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D165" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E165" t="s" s="14">
+        <v>259</v>
+      </c>
+      <c r="F165" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s" s="40">
+        <v>250</v>
+      </c>
+      <c r="I165" t="s" s="66">
         <v>258</v>
       </c>
-      <c r="F165" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G165" s="10"/>
-      <c r="H165" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I165" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J165" t="s" s="65">
-        <v>257</v>
-      </c>
     </row>
     <row r="166" ht="45.75" customHeight="1">
-      <c r="A166" t="s" s="40">
-        <v>259</v>
+      <c r="A166" t="s" s="42">
+        <v>260</v>
       </c>
       <c r="B166" t="s" s="13">
         <v>11</v>
@@ -7781,28 +7566,27 @@
         <v>12</v>
       </c>
       <c r="D166" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E166" t="s" s="14">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F166" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G166" s="10"/>
-      <c r="H166" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I166" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J166" t="s" s="12">
-        <v>261</v>
+      <c r="G166" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I166" t="s" s="12">
+        <v>262</v>
       </c>
     </row>
     <row r="167" ht="30.75" customHeight="1">
       <c r="A167" t="s" s="12">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B167" t="s" s="13">
         <v>11</v>
@@ -7811,28 +7595,27 @@
         <v>12</v>
       </c>
       <c r="D167" t="s" s="14">
-        <v>161</v>
-      </c>
-      <c r="E167" t="s" s="66">
-        <v>262</v>
+        <v>162</v>
+      </c>
+      <c r="E167" t="s" s="67">
+        <v>263</v>
       </c>
       <c r="F167" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G167" s="10"/>
+      <c r="G167" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H167" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I167" t="s" s="15">
-        <v>249</v>
-      </c>
-      <c r="J167" t="s" s="17">
-        <v>259</v>
+        <v>250</v>
+      </c>
+      <c r="I167" t="s" s="17">
+        <v>260</v>
       </c>
     </row>
     <row r="168" ht="30.75" customHeight="1">
       <c r="A168" t="s" s="12">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B168" t="s" s="13">
         <v>11</v>
@@ -7841,28 +7624,27 @@
         <v>12</v>
       </c>
       <c r="D168" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E168" t="s" s="14">
+        <v>265</v>
+      </c>
+      <c r="F168" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I168" t="s" s="12">
         <v>264</v>
-      </c>
-      <c r="F168" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G168" s="10"/>
-      <c r="H168" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I168" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J168" t="s" s="12">
-        <v>263</v>
       </c>
     </row>
     <row r="169" ht="13.55" customHeight="1">
       <c r="A169" t="s" s="12">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B169" t="s" s="13">
         <v>11</v>
@@ -7871,28 +7653,27 @@
         <v>12</v>
       </c>
       <c r="D169" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E169" t="s" s="14">
+        <v>267</v>
+      </c>
+      <c r="F169" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G169" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H169" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I169" t="s" s="12">
         <v>266</v>
       </c>
-      <c r="F169" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G169" s="10"/>
-      <c r="H169" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I169" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J169" t="s" s="12">
-        <v>265</v>
-      </c>
     </row>
     <row r="170" ht="13.55" customHeight="1">
-      <c r="A170" t="s" s="26">
-        <v>267</v>
+      <c r="A170" t="s" s="28">
+        <v>268</v>
       </c>
       <c r="B170" t="s" s="13">
         <v>11</v>
@@ -7901,28 +7682,27 @@
         <v>12</v>
       </c>
       <c r="D170" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E170" t="s" s="14">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F170" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G170" s="10"/>
-      <c r="H170" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I170" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J170" t="s" s="26">
-        <v>269</v>
+      <c r="G170" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I170" t="s" s="28">
+        <v>270</v>
       </c>
     </row>
     <row r="171" ht="13.55" customHeight="1">
-      <c r="A171" t="s" s="26">
-        <v>270</v>
+      <c r="A171" t="s" s="28">
+        <v>271</v>
       </c>
       <c r="B171" t="s" s="13">
         <v>11</v>
@@ -7931,28 +7711,27 @@
         <v>12</v>
       </c>
       <c r="D171" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E171" t="s" s="14">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F171" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G171" s="10"/>
-      <c r="H171" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I171" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J171" t="s" s="26">
-        <v>272</v>
+      <c r="G171" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I171" t="s" s="28">
+        <v>273</v>
       </c>
     </row>
     <row r="172" ht="13.55" customHeight="1">
       <c r="A172" t="s" s="12">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B172" t="s" s="13">
         <v>11</v>
@@ -7961,28 +7740,27 @@
         <v>12</v>
       </c>
       <c r="D172" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E172" t="s" s="14">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F172" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G172" s="10"/>
-      <c r="H172" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I172" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J172" t="s" s="26">
-        <v>275</v>
+      <c r="G172" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H172" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I172" t="s" s="28">
+        <v>276</v>
       </c>
     </row>
     <row r="173" ht="13.55" customHeight="1">
       <c r="A173" t="s" s="12">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B173" t="s" s="13">
         <v>11</v>
@@ -7991,28 +7769,27 @@
         <v>12</v>
       </c>
       <c r="D173" t="s" s="14">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E173" t="s" s="14">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F173" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G173" s="10"/>
-      <c r="H173" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I173" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J173" t="s" s="26">
-        <v>273</v>
+      <c r="G173" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H173" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I173" t="s" s="28">
+        <v>274</v>
       </c>
     </row>
     <row r="174" ht="13.55" customHeight="1">
       <c r="A174" t="s" s="12">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B174" t="s" s="13">
         <v>11</v>
@@ -8021,28 +7798,27 @@
         <v>12</v>
       </c>
       <c r="D174" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E174" t="s" s="14">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F174" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G174" s="10"/>
-      <c r="H174" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I174" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J174" t="s" s="12">
-        <v>277</v>
+      <c r="G174" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I174" t="s" s="12">
+        <v>278</v>
       </c>
     </row>
     <row r="175" ht="13.55" customHeight="1">
       <c r="A175" t="s" s="12">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B175" t="s" s="13">
         <v>11</v>
@@ -8051,28 +7827,27 @@
         <v>12</v>
       </c>
       <c r="D175" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E175" t="s" s="14">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F175" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G175" s="10"/>
-      <c r="H175" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I175" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J175" t="s" s="12">
-        <v>278</v>
+      <c r="G175" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I175" t="s" s="12">
+        <v>279</v>
       </c>
     </row>
     <row r="176" ht="45.75" customHeight="1">
       <c r="A176" t="s" s="17">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B176" t="s" s="13">
         <v>11</v>
@@ -8081,28 +7856,27 @@
         <v>12</v>
       </c>
       <c r="D176" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E176" t="s" s="37">
-        <v>280</v>
+        <v>218</v>
+      </c>
+      <c r="E176" t="s" s="39">
+        <v>281</v>
       </c>
       <c r="F176" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G176" s="10"/>
-      <c r="H176" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I176" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J176" t="s" s="12">
-        <v>281</v>
+      <c r="G176" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H176" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I176" t="s" s="12">
+        <v>282</v>
       </c>
     </row>
     <row r="177" ht="26.55" customHeight="1">
       <c r="A177" t="s" s="12">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B177" t="s" s="13">
         <v>11</v>
@@ -8110,29 +7884,28 @@
       <c r="C177" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D177" t="s" s="41">
-        <v>161</v>
+      <c r="D177" t="s" s="23">
+        <v>162</v>
       </c>
       <c r="E177" t="s" s="12">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F177" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="G177" s="10"/>
+      <c r="G177" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H177" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I177" t="s" s="15">
-        <v>249</v>
-      </c>
-      <c r="J177" t="s" s="17">
-        <v>279</v>
+        <v>250</v>
+      </c>
+      <c r="I177" t="s" s="17">
+        <v>280</v>
       </c>
     </row>
     <row r="178" ht="13.55" customHeight="1">
       <c r="A178" t="s" s="12">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s" s="13">
         <v>11</v>
@@ -8141,28 +7914,27 @@
         <v>12</v>
       </c>
       <c r="D178" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E178" t="s" s="67">
+        <v>218</v>
+      </c>
+      <c r="E178" t="s" s="22">
+        <v>285</v>
+      </c>
+      <c r="F178" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G178" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I178" t="s" s="12">
         <v>284</v>
-      </c>
-      <c r="F178" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G178" s="10"/>
-      <c r="H178" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I178" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J178" t="s" s="12">
-        <v>283</v>
       </c>
     </row>
     <row r="179" ht="13.55" customHeight="1">
       <c r="A179" t="s" s="12">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s" s="13">
         <v>11</v>
@@ -8171,28 +7943,27 @@
         <v>12</v>
       </c>
       <c r="D179" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E179" t="s" s="14">
+        <v>287</v>
+      </c>
+      <c r="F179" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G179" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H179" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I179" t="s" s="12">
         <v>286</v>
-      </c>
-      <c r="F179" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G179" s="10"/>
-      <c r="H179" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I179" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J179" t="s" s="12">
-        <v>285</v>
       </c>
     </row>
     <row r="180" ht="30.75" customHeight="1">
       <c r="A180" t="s" s="12">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B180" t="s" s="13">
         <v>11</v>
@@ -8201,28 +7972,27 @@
         <v>12</v>
       </c>
       <c r="D180" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E180" t="s" s="14">
+        <v>289</v>
+      </c>
+      <c r="F180" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H180" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I180" t="s" s="12">
         <v>288</v>
-      </c>
-      <c r="F180" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G180" s="10"/>
-      <c r="H180" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I180" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J180" t="s" s="12">
-        <v>287</v>
       </c>
     </row>
     <row r="181" ht="30.75" customHeight="1">
       <c r="A181" t="s" s="12">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B181" t="s" s="13">
         <v>11</v>
@@ -8231,28 +8001,27 @@
         <v>12</v>
       </c>
       <c r="D181" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E181" t="s" s="14">
+        <v>291</v>
+      </c>
+      <c r="F181" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G181" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H181" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I181" t="s" s="12">
         <v>290</v>
-      </c>
-      <c r="F181" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G181" s="10"/>
-      <c r="H181" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I181" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J181" t="s" s="12">
-        <v>289</v>
       </c>
     </row>
     <row r="182" ht="30.75" customHeight="1">
       <c r="A182" t="s" s="12">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B182" t="s" s="13">
         <v>11</v>
@@ -8261,28 +8030,27 @@
         <v>12</v>
       </c>
       <c r="D182" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E182" t="s" s="14">
+        <v>293</v>
+      </c>
+      <c r="F182" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G182" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H182" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I182" t="s" s="12">
         <v>292</v>
-      </c>
-      <c r="F182" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G182" s="10"/>
-      <c r="H182" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I182" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J182" t="s" s="12">
-        <v>291</v>
       </c>
     </row>
     <row r="183" ht="30.75" customHeight="1">
       <c r="A183" t="s" s="12">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B183" t="s" s="13">
         <v>11</v>
@@ -8291,28 +8059,27 @@
         <v>12</v>
       </c>
       <c r="D183" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E183" t="s" s="14">
+        <v>295</v>
+      </c>
+      <c r="F183" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G183" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I183" t="s" s="12">
         <v>294</v>
-      </c>
-      <c r="F183" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G183" s="10"/>
-      <c r="H183" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I183" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J183" t="s" s="12">
-        <v>293</v>
       </c>
     </row>
     <row r="184" ht="13.55" customHeight="1">
       <c r="A184" t="s" s="12">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B184" t="s" s="13">
         <v>11</v>
@@ -8321,28 +8088,27 @@
         <v>12</v>
       </c>
       <c r="D184" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E184" t="s" s="14">
+        <v>297</v>
+      </c>
+      <c r="F184" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G184" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I184" t="s" s="12">
         <v>296</v>
-      </c>
-      <c r="F184" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G184" s="10"/>
-      <c r="H184" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I184" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J184" t="s" s="12">
-        <v>295</v>
       </c>
     </row>
     <row r="185" ht="13.55" customHeight="1">
       <c r="A185" t="s" s="12">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B185" t="s" s="13">
         <v>11</v>
@@ -8351,28 +8117,27 @@
         <v>12</v>
       </c>
       <c r="D185" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E185" t="s" s="14">
+        <v>299</v>
+      </c>
+      <c r="F185" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G185" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H185" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I185" t="s" s="12">
         <v>298</v>
-      </c>
-      <c r="F185" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G185" s="10"/>
-      <c r="H185" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I185" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J185" t="s" s="12">
-        <v>297</v>
       </c>
     </row>
     <row r="186" ht="30.75" customHeight="1">
       <c r="A186" t="s" s="12">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B186" t="s" s="13">
         <v>11</v>
@@ -8381,28 +8146,27 @@
         <v>12</v>
       </c>
       <c r="D186" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E186" t="s" s="14">
+        <v>301</v>
+      </c>
+      <c r="F186" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G186" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H186" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I186" t="s" s="12">
         <v>300</v>
-      </c>
-      <c r="F186" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G186" s="10"/>
-      <c r="H186" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I186" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J186" t="s" s="12">
-        <v>299</v>
       </c>
     </row>
     <row r="187" ht="30.75" customHeight="1">
       <c r="A187" t="s" s="12">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B187" t="s" s="13">
         <v>11</v>
@@ -8411,222 +8175,214 @@
         <v>12</v>
       </c>
       <c r="D187" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E187" t="s" s="14">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F187" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G187" s="10"/>
-      <c r="H187" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I187" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J187" t="s" s="12">
-        <v>301</v>
+      <c r="G187" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H187" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I187" t="s" s="12">
+        <v>302</v>
       </c>
     </row>
     <row r="188" ht="30.75" customHeight="1">
       <c r="A188" t="s" s="12">
-        <v>302</v>
-      </c>
-      <c r="B188" t="s" s="49">
-        <v>11</v>
-      </c>
-      <c r="C188" t="s" s="37">
-        <v>12</v>
-      </c>
-      <c r="D188" t="s" s="37">
-        <v>217</v>
+        <v>303</v>
+      </c>
+      <c r="B188" t="s" s="50">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s" s="39">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s" s="39">
+        <v>218</v>
       </c>
       <c r="E188" t="s" s="14">
+        <v>304</v>
+      </c>
+      <c r="F188" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="G188" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H188" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I188" t="s" s="12">
         <v>303</v>
       </c>
-      <c r="F188" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="G188" s="10"/>
-      <c r="H188" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I188" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J188" t="s" s="12">
-        <v>302</v>
-      </c>
     </row>
     <row r="189" ht="13.55" customHeight="1">
-      <c r="A189" t="s" s="58">
-        <v>304</v>
+      <c r="A189" t="s" s="59">
+        <v>305</v>
       </c>
       <c r="B189" s="68"/>
-      <c r="C189" s="55"/>
-      <c r="D189" s="55"/>
+      <c r="C189" s="56"/>
+      <c r="D189" s="56"/>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="69"/>
+      <c r="I189" s="69"/>
     </row>
     <row r="190" ht="13.55" customHeight="1">
-      <c r="A190" t="s" s="60">
-        <v>247</v>
+      <c r="A190" t="s" s="61">
+        <v>248</v>
       </c>
       <c r="B190" t="s" s="70">
         <v>11</v>
       </c>
-      <c r="C190" t="s" s="67">
-        <v>12</v>
-      </c>
-      <c r="D190" t="s" s="67">
-        <v>217</v>
+      <c r="C190" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s" s="22">
+        <v>218</v>
       </c>
       <c r="E190" t="s" s="14">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F190" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G190" s="10"/>
-      <c r="H190" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I190" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J190" t="s" s="61">
-        <v>247</v>
+        <v>27</v>
+      </c>
+      <c r="G190" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s" s="40">
+        <v>250</v>
+      </c>
+      <c r="I190" t="s" s="62">
+        <v>248</v>
       </c>
     </row>
     <row r="191" ht="45.75" customHeight="1">
-      <c r="A191" t="s" s="62">
+      <c r="A191" t="s" s="63">
+        <v>251</v>
+      </c>
+      <c r="B191" t="s" s="38">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s" s="14">
+        <v>218</v>
+      </c>
+      <c r="E191" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="F191" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G191" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s" s="40">
         <v>250</v>
       </c>
-      <c r="B191" t="s" s="36">
-        <v>11</v>
-      </c>
-      <c r="C191" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D191" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E191" t="s" s="14">
-        <v>306</v>
-      </c>
-      <c r="F191" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G191" s="10"/>
-      <c r="H191" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I191" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J191" t="s" s="61">
+      <c r="I191" t="s" s="62">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="192" ht="30.75" customHeight="1">
+      <c r="A192" t="s" s="64">
+        <v>253</v>
+      </c>
+      <c r="B192" t="s" s="38">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s" s="14">
+        <v>218</v>
+      </c>
+      <c r="E192" t="s" s="14">
+        <v>308</v>
+      </c>
+      <c r="F192" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="G192" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s" s="40">
         <v>250</v>
       </c>
-    </row>
-    <row r="192" ht="30.75" customHeight="1">
-      <c r="A192" t="s" s="63">
-        <v>252</v>
-      </c>
-      <c r="B192" t="s" s="36">
-        <v>11</v>
-      </c>
-      <c r="C192" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D192" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E192" t="s" s="14">
-        <v>307</v>
-      </c>
-      <c r="F192" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G192" s="10"/>
-      <c r="H192" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I192" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J192" t="s" s="64">
-        <v>252</v>
+      <c r="I192" t="s" s="65">
+        <v>253</v>
       </c>
     </row>
     <row r="193" ht="13.55" customHeight="1">
-      <c r="A193" t="s" s="62">
-        <v>254</v>
-      </c>
-      <c r="B193" t="s" s="36">
+      <c r="A193" t="s" s="63">
+        <v>255</v>
+      </c>
+      <c r="B193" t="s" s="38">
         <v>11</v>
       </c>
       <c r="C193" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D193" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E193" t="s" s="14">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F193" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G193" s="10"/>
-      <c r="H193" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I193" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J193" t="s" s="61">
-        <v>256</v>
+        <v>27</v>
+      </c>
+      <c r="G193" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s" s="40">
+        <v>250</v>
+      </c>
+      <c r="I193" t="s" s="62">
+        <v>257</v>
       </c>
     </row>
     <row r="194" ht="13.55" customHeight="1">
-      <c r="A194" t="s" s="62">
-        <v>257</v>
-      </c>
-      <c r="B194" t="s" s="36">
+      <c r="A194" t="s" s="63">
+        <v>258</v>
+      </c>
+      <c r="B194" t="s" s="38">
         <v>11</v>
       </c>
       <c r="C194" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D194" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E194" t="s" s="14">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F194" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G194" s="10"/>
-      <c r="H194" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I194" t="s" s="38">
-        <v>249</v>
-      </c>
-      <c r="J194" t="s" s="65">
-        <v>257</v>
+        <v>27</v>
+      </c>
+      <c r="G194" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s" s="40">
+        <v>250</v>
+      </c>
+      <c r="I194" t="s" s="66">
+        <v>258</v>
       </c>
     </row>
     <row r="195" ht="45.75" customHeight="1">
-      <c r="A195" t="s" s="40">
-        <v>259</v>
+      <c r="A195" t="s" s="42">
+        <v>260</v>
       </c>
       <c r="B195" t="s" s="13">
         <v>11</v>
@@ -8635,28 +8391,27 @@
         <v>12</v>
       </c>
       <c r="D195" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E195" t="s" s="14">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F195" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G195" s="10"/>
-      <c r="H195" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I195" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J195" t="s" s="12">
-        <v>261</v>
+        <v>27</v>
+      </c>
+      <c r="G195" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H195" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I195" t="s" s="12">
+        <v>262</v>
       </c>
     </row>
     <row r="196" ht="30.75" customHeight="1">
       <c r="A196" t="s" s="12">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B196" t="s" s="13">
         <v>11</v>
@@ -8665,28 +8420,27 @@
         <v>12</v>
       </c>
       <c r="D196" t="s" s="14">
-        <v>161</v>
-      </c>
-      <c r="E196" t="s" s="66">
-        <v>262</v>
+        <v>162</v>
+      </c>
+      <c r="E196" t="s" s="67">
+        <v>263</v>
       </c>
       <c r="F196" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G196" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G196" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H196" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I196" t="s" s="15">
-        <v>249</v>
-      </c>
-      <c r="J196" t="s" s="17">
-        <v>259</v>
+        <v>250</v>
+      </c>
+      <c r="I196" t="s" s="17">
+        <v>260</v>
       </c>
     </row>
     <row r="197" ht="30.75" customHeight="1">
       <c r="A197" t="s" s="12">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B197" t="s" s="13">
         <v>11</v>
@@ -8695,28 +8449,27 @@
         <v>12</v>
       </c>
       <c r="D197" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E197" t="s" s="14">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F197" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G197" s="10"/>
-      <c r="H197" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I197" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J197" t="s" s="12">
-        <v>263</v>
+        <v>27</v>
+      </c>
+      <c r="G197" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H197" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I197" t="s" s="12">
+        <v>264</v>
       </c>
     </row>
     <row r="198" ht="13.55" customHeight="1">
       <c r="A198" t="s" s="12">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B198" t="s" s="13">
         <v>11</v>
@@ -8725,28 +8478,27 @@
         <v>12</v>
       </c>
       <c r="D198" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E198" t="s" s="14">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F198" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G198" s="10"/>
-      <c r="H198" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I198" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J198" t="s" s="12">
-        <v>265</v>
+        <v>27</v>
+      </c>
+      <c r="G198" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H198" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I198" t="s" s="12">
+        <v>266</v>
       </c>
     </row>
     <row r="199" ht="13.55" customHeight="1">
-      <c r="A199" t="s" s="26">
-        <v>313</v>
+      <c r="A199" t="s" s="28">
+        <v>314</v>
       </c>
       <c r="B199" t="s" s="13">
         <v>11</v>
@@ -8755,28 +8507,27 @@
         <v>12</v>
       </c>
       <c r="D199" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E199" t="s" s="14">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F199" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G199" s="10"/>
-      <c r="H199" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I199" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J199" t="s" s="26">
-        <v>269</v>
+        <v>27</v>
+      </c>
+      <c r="G199" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H199" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I199" t="s" s="28">
+        <v>270</v>
       </c>
     </row>
     <row r="200" ht="13.55" customHeight="1">
-      <c r="A200" t="s" s="26">
-        <v>315</v>
+      <c r="A200" t="s" s="28">
+        <v>316</v>
       </c>
       <c r="B200" t="s" s="13">
         <v>11</v>
@@ -8785,28 +8536,27 @@
         <v>12</v>
       </c>
       <c r="D200" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E200" t="s" s="14">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F200" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G200" s="10"/>
-      <c r="H200" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I200" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J200" t="s" s="26">
-        <v>272</v>
+        <v>27</v>
+      </c>
+      <c r="G200" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H200" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I200" t="s" s="28">
+        <v>273</v>
       </c>
     </row>
     <row r="201" ht="13.55" customHeight="1">
-      <c r="A201" t="s" s="26">
-        <v>273</v>
+      <c r="A201" t="s" s="28">
+        <v>274</v>
       </c>
       <c r="B201" t="s" s="13">
         <v>11</v>
@@ -8815,28 +8565,27 @@
         <v>12</v>
       </c>
       <c r="D201" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E201" t="s" s="14">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F201" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G201" s="10"/>
-      <c r="H201" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I201" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J201" t="s" s="26">
-        <v>275</v>
+        <v>27</v>
+      </c>
+      <c r="G201" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H201" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I201" t="s" s="28">
+        <v>276</v>
       </c>
     </row>
     <row r="202" ht="13.55" customHeight="1">
       <c r="A202" t="s" s="12">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B202" t="s" s="13">
         <v>11</v>
@@ -8845,28 +8594,27 @@
         <v>12</v>
       </c>
       <c r="D202" t="s" s="14">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E202" t="s" s="14">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F202" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G202" s="10"/>
-      <c r="H202" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I202" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J202" t="s" s="26">
-        <v>273</v>
+        <v>27</v>
+      </c>
+      <c r="G202" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H202" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I202" t="s" s="28">
+        <v>274</v>
       </c>
     </row>
     <row r="203" ht="13.55" customHeight="1">
       <c r="A203" t="s" s="12">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B203" t="s" s="13">
         <v>11</v>
@@ -8875,28 +8623,27 @@
         <v>12</v>
       </c>
       <c r="D203" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E203" t="s" s="14">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F203" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G203" s="10"/>
-      <c r="H203" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I203" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J203" t="s" s="12">
-        <v>277</v>
+        <v>27</v>
+      </c>
+      <c r="G203" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H203" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I203" t="s" s="12">
+        <v>278</v>
       </c>
     </row>
     <row r="204" ht="13.55" customHeight="1">
       <c r="A204" t="s" s="12">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B204" t="s" s="13">
         <v>11</v>
@@ -8905,28 +8652,27 @@
         <v>12</v>
       </c>
       <c r="D204" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E204" t="s" s="14">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F204" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G204" s="10"/>
-      <c r="H204" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I204" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J204" t="s" s="12">
-        <v>278</v>
+        <v>27</v>
+      </c>
+      <c r="G204" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H204" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I204" t="s" s="12">
+        <v>279</v>
       </c>
     </row>
     <row r="205" ht="45.75" customHeight="1">
       <c r="A205" t="s" s="17">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B205" t="s" s="13">
         <v>11</v>
@@ -8935,28 +8681,27 @@
         <v>12</v>
       </c>
       <c r="D205" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E205" t="s" s="37">
-        <v>319</v>
+        <v>218</v>
+      </c>
+      <c r="E205" t="s" s="39">
+        <v>320</v>
       </c>
       <c r="F205" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G205" s="10"/>
-      <c r="H205" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I205" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J205" t="s" s="12">
-        <v>281</v>
+        <v>27</v>
+      </c>
+      <c r="G205" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H205" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I205" t="s" s="12">
+        <v>282</v>
       </c>
     </row>
     <row r="206" ht="26.55" customHeight="1">
       <c r="A206" t="s" s="12">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s" s="13">
         <v>11</v>
@@ -8964,29 +8709,28 @@
       <c r="C206" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D206" t="s" s="41">
-        <v>161</v>
+      <c r="D206" t="s" s="23">
+        <v>162</v>
       </c>
       <c r="E206" t="s" s="12">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F206" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="G206" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G206" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="H206" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I206" t="s" s="15">
-        <v>249</v>
-      </c>
-      <c r="J206" t="s" s="17">
-        <v>279</v>
+        <v>250</v>
+      </c>
+      <c r="I206" t="s" s="17">
+        <v>280</v>
       </c>
     </row>
     <row r="207" ht="13.55" customHeight="1">
       <c r="A207" t="s" s="12">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B207" t="s" s="13">
         <v>11</v>
@@ -8995,28 +8739,27 @@
         <v>12</v>
       </c>
       <c r="D207" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="E207" t="s" s="67">
-        <v>320</v>
+        <v>218</v>
+      </c>
+      <c r="E207" t="s" s="22">
+        <v>321</v>
       </c>
       <c r="F207" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G207" s="10"/>
-      <c r="H207" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I207" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J207" t="s" s="12">
-        <v>283</v>
+        <v>27</v>
+      </c>
+      <c r="G207" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H207" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I207" t="s" s="12">
+        <v>284</v>
       </c>
     </row>
     <row r="208" ht="13.55" customHeight="1">
       <c r="A208" t="s" s="12">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B208" t="s" s="13">
         <v>11</v>
@@ -9025,28 +8768,27 @@
         <v>12</v>
       </c>
       <c r="D208" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E208" t="s" s="14">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F208" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G208" s="10"/>
-      <c r="H208" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I208" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J208" t="s" s="12">
-        <v>285</v>
+        <v>27</v>
+      </c>
+      <c r="G208" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H208" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I208" t="s" s="12">
+        <v>286</v>
       </c>
     </row>
     <row r="209" ht="30.75" customHeight="1">
       <c r="A209" t="s" s="12">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B209" t="s" s="13">
         <v>11</v>
@@ -9055,28 +8797,27 @@
         <v>12</v>
       </c>
       <c r="D209" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E209" t="s" s="14">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F209" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G209" s="10"/>
-      <c r="H209" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I209" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J209" t="s" s="12">
-        <v>287</v>
+        <v>27</v>
+      </c>
+      <c r="G209" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H209" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I209" t="s" s="12">
+        <v>288</v>
       </c>
     </row>
     <row r="210" ht="30.75" customHeight="1">
       <c r="A210" t="s" s="12">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B210" t="s" s="13">
         <v>11</v>
@@ -9085,28 +8826,27 @@
         <v>12</v>
       </c>
       <c r="D210" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E210" t="s" s="14">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F210" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G210" s="10"/>
-      <c r="H210" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I210" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J210" t="s" s="12">
-        <v>289</v>
+        <v>27</v>
+      </c>
+      <c r="G210" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H210" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I210" t="s" s="12">
+        <v>290</v>
       </c>
     </row>
     <row r="211" ht="30.75" customHeight="1">
       <c r="A211" t="s" s="12">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B211" t="s" s="13">
         <v>11</v>
@@ -9115,28 +8855,27 @@
         <v>12</v>
       </c>
       <c r="D211" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E211" t="s" s="14">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F211" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G211" s="10"/>
-      <c r="H211" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I211" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J211" t="s" s="12">
-        <v>291</v>
+        <v>27</v>
+      </c>
+      <c r="G211" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H211" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I211" t="s" s="12">
+        <v>292</v>
       </c>
     </row>
     <row r="212" ht="30.75" customHeight="1">
       <c r="A212" t="s" s="12">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B212" t="s" s="13">
         <v>11</v>
@@ -9145,28 +8884,27 @@
         <v>12</v>
       </c>
       <c r="D212" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E212" t="s" s="14">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F212" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G212" s="10"/>
-      <c r="H212" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I212" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J212" t="s" s="12">
-        <v>293</v>
+        <v>27</v>
+      </c>
+      <c r="G212" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H212" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I212" t="s" s="12">
+        <v>294</v>
       </c>
     </row>
     <row r="213" ht="13.55" customHeight="1">
       <c r="A213" t="s" s="12">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B213" t="s" s="13">
         <v>11</v>
@@ -9175,28 +8913,27 @@
         <v>12</v>
       </c>
       <c r="D213" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E213" t="s" s="14">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F213" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G213" s="10"/>
-      <c r="H213" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I213" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J213" t="s" s="12">
-        <v>295</v>
+        <v>27</v>
+      </c>
+      <c r="G213" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H213" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I213" t="s" s="12">
+        <v>296</v>
       </c>
     </row>
     <row r="214" ht="13.55" customHeight="1">
       <c r="A214" t="s" s="12">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B214" t="s" s="13">
         <v>11</v>
@@ -9205,28 +8942,27 @@
         <v>12</v>
       </c>
       <c r="D214" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E214" t="s" s="14">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F214" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G214" s="10"/>
-      <c r="H214" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I214" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J214" t="s" s="12">
-        <v>297</v>
+        <v>27</v>
+      </c>
+      <c r="G214" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H214" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I214" t="s" s="12">
+        <v>298</v>
       </c>
     </row>
     <row r="215" ht="30.75" customHeight="1">
       <c r="A215" t="s" s="12">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B215" t="s" s="13">
         <v>11</v>
@@ -9235,28 +8971,27 @@
         <v>12</v>
       </c>
       <c r="D215" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E215" t="s" s="14">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F215" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G215" s="10"/>
-      <c r="H215" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I215" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J215" t="s" s="12">
-        <v>299</v>
+        <v>27</v>
+      </c>
+      <c r="G215" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H215" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I215" t="s" s="12">
+        <v>300</v>
       </c>
     </row>
     <row r="216" ht="30.75" customHeight="1">
       <c r="A216" t="s" s="12">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B216" t="s" s="13">
         <v>11</v>
@@ -9265,116 +9000,111 @@
         <v>12</v>
       </c>
       <c r="D216" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E216" t="s" s="14">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F216" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G216" s="10"/>
-      <c r="H216" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I216" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J216" t="s" s="12">
-        <v>301</v>
+        <v>27</v>
+      </c>
+      <c r="G216" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H216" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I216" t="s" s="12">
+        <v>302</v>
       </c>
     </row>
     <row r="217" ht="30.75" customHeight="1">
       <c r="A217" t="s" s="12">
-        <v>302</v>
-      </c>
-      <c r="B217" t="s" s="49">
+        <v>303</v>
+      </c>
+      <c r="B217" t="s" s="50">
         <v>11</v>
       </c>
       <c r="C217" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D217" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E217" t="s" s="14">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F217" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G217" s="10"/>
-      <c r="H217" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I217" t="s" s="29">
-        <v>249</v>
-      </c>
-      <c r="J217" t="s" s="12">
-        <v>302</v>
+        <v>27</v>
+      </c>
+      <c r="G217" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H217" t="s" s="31">
+        <v>250</v>
+      </c>
+      <c r="I217" t="s" s="12">
+        <v>303</v>
       </c>
     </row>
     <row r="218" ht="29.25" customHeight="1">
       <c r="A218" t="s" s="71">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B218" s="72"/>
-      <c r="C218" s="20"/>
+      <c r="C218" s="21"/>
       <c r="D218" s="10"/>
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="11"/>
+      <c r="I218" s="11"/>
     </row>
     <row r="219" ht="31" customHeight="1">
       <c r="A219" t="s" s="17">
-        <v>331</v>
-      </c>
-      <c r="B219" t="s" s="57">
+        <v>332</v>
+      </c>
+      <c r="B219" t="s" s="58">
         <v>11</v>
       </c>
       <c r="C219" t="s" s="14">
         <v>12</v>
       </c>
       <c r="D219" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E219" t="s" s="14">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F219" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="G219" s="10"/>
-      <c r="H219" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I219" t="s" s="31">
+      <c r="G219" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H219" t="s" s="33">
+        <v>333</v>
+      </c>
+      <c r="I219" t="s" s="73">
         <v>332</v>
-      </c>
-      <c r="J219" t="s" s="73">
-        <v>331</v>
       </c>
     </row>
     <row r="220" ht="29.25" customHeight="1">
       <c r="A220" t="s" s="71">
-        <v>330</v>
-      </c>
-      <c r="B220" s="20"/>
+        <v>331</v>
+      </c>
+      <c r="B220" s="21"/>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="44"/>
-      <c r="I220" s="44"/>
-      <c r="J220" s="74"/>
+      <c r="G220" s="45"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="74"/>
     </row>
     <row r="221" ht="31" customHeight="1">
       <c r="A221" t="s" s="17">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B221" t="s" s="13">
         <v>11</v>
@@ -9383,30 +9113,29 @@
         <v>12</v>
       </c>
       <c r="D221" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E221" t="s" s="14">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F221" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="G221" s="10"/>
-      <c r="H221" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I221" t="s" s="31">
+        <v>27</v>
+      </c>
+      <c r="G221" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H221" t="s" s="33">
+        <v>333</v>
+      </c>
+      <c r="I221" t="s" s="73">
         <v>332</v>
       </c>
-      <c r="J221" t="s" s="73">
-        <v>331</v>
-      </c>
     </row>
     <row r="222" ht="14.45" customHeight="1">
-      <c r="A222" t="s" s="54">
-        <v>333</v>
-      </c>
-      <c r="B222" s="20"/>
+      <c r="A222" t="s" s="55">
+        <v>334</v>
+      </c>
+      <c r="B222" s="21"/>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
       <c r="E222" s="10"/>
@@ -9414,45 +9143,41 @@
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
       <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
     </row>
     <row r="223" ht="13.65" customHeight="1">
       <c r="A223" t="s" s="12">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B223" t="s" s="13">
+        <v>336</v>
+      </c>
+      <c r="C223" t="s" s="14">
+        <v>337</v>
+      </c>
+      <c r="D223" t="s" s="14">
+        <v>338</v>
+      </c>
+      <c r="E223" t="s" s="14">
+        <v>339</v>
+      </c>
+      <c r="F223" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="G223" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H223" t="s" s="75">
         <v>335</v>
       </c>
-      <c r="C223" t="s" s="14">
-        <v>336</v>
-      </c>
-      <c r="D223" t="s" s="14">
-        <v>337</v>
-      </c>
-      <c r="E223" t="s" s="14">
-        <v>338</v>
-      </c>
-      <c r="F223" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="G223" t="s" s="76">
-        <v>339</v>
-      </c>
-      <c r="H223" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="I223" t="s" s="77">
-        <v>334</v>
-      </c>
-      <c r="J223" t="s" s="16">
+      <c r="I223" t="s" s="16">
         <v>340</v>
       </c>
     </row>
     <row r="224" ht="24" customHeight="1">
-      <c r="A224" t="s" s="78">
+      <c r="A224" t="s" s="76">
         <v>341</v>
       </c>
-      <c r="B224" s="20"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
       <c r="E224" s="10"/>
@@ -9460,7 +9185,6 @@
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
       <c r="I224" s="10"/>
-      <c r="J224" s="10"/>
     </row>
     <row r="225" ht="24.65" customHeight="1">
       <c r="A225" t="s" s="12">
@@ -9473,30 +9197,29 @@
         <v>12</v>
       </c>
       <c r="D225" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E225" t="s" s="14">
         <v>343</v>
       </c>
       <c r="F225" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="G225" s="10"/>
-      <c r="H225" t="s" s="15">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="G225" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="H225" t="s" s="16">
+        <v>344</v>
       </c>
       <c r="I225" t="s" s="16">
-        <v>344</v>
-      </c>
-      <c r="J225" t="s" s="16">
         <v>342</v>
       </c>
     </row>
     <row r="226" ht="13.55" customHeight="1">
-      <c r="A226" t="s" s="54">
+      <c r="A226" t="s" s="55">
         <v>345</v>
       </c>
-      <c r="B226" s="20"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
       <c r="E226" s="10"/>
@@ -9504,7 +9227,6 @@
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
       <c r="I226" s="10"/>
-      <c r="J226" s="10"/>
     </row>
     <row r="227" ht="17" customHeight="1">
       <c r="A227" t="s" s="17">
@@ -9525,14 +9247,13 @@
       <c r="F227" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G227" s="10"/>
-      <c r="H227" t="s" s="14">
+      <c r="G227" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="I227" t="s" s="31">
+      <c r="H227" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="J227" s="10"/>
+      <c r="I227" s="10"/>
     </row>
     <row r="228" ht="17" customHeight="1">
       <c r="A228" t="s" s="17">
@@ -9553,14 +9274,13 @@
       <c r="F228" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G228" s="10"/>
-      <c r="H228" t="s" s="14">
+      <c r="G228" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="I228" t="s" s="31">
+      <c r="H228" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="J228" s="10"/>
+      <c r="I228" s="10"/>
     </row>
     <row r="229" ht="17" customHeight="1">
       <c r="A229" t="s" s="12">
@@ -9573,7 +9293,7 @@
         <v>12</v>
       </c>
       <c r="D229" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E229" t="s" s="14">
         <v>349</v>
@@ -9581,14 +9301,13 @@
       <c r="F229" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G229" s="10"/>
-      <c r="H229" t="s" s="14">
+      <c r="G229" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="I229" t="s" s="31">
+      <c r="H229" t="s" s="33">
         <v>348</v>
       </c>
-      <c r="J229" s="10"/>
+      <c r="I229" s="10"/>
     </row>
     <row r="230" ht="17" customHeight="1">
       <c r="A230" t="s" s="12">
@@ -9601,7 +9320,7 @@
         <v>12</v>
       </c>
       <c r="D230" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E230" t="s" s="14">
         <v>351</v>
@@ -9609,36 +9328,40 @@
       <c r="F230" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G230" s="10"/>
-      <c r="H230" t="s" s="14">
+      <c r="G230" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="I230" t="s" s="31">
+      <c r="H230" t="s" s="33">
         <v>350</v>
       </c>
-      <c r="J230" s="10"/>
+      <c r="I230" s="10"/>
     </row>
     <row r="231" ht="17" customHeight="1">
       <c r="A231" t="s" s="12">
         <v>352</v>
       </c>
-      <c r="B231" s="20"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="10"/>
+      <c r="B231" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D231" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="E231" t="s" s="14">
+        <v>353</v>
+      </c>
       <c r="F231" t="s" s="14">
         <v>346</v>
       </c>
       <c r="G231" t="s" s="14">
-        <v>353</v>
-      </c>
-      <c r="H231" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="I231" t="s" s="31">
+      <c r="H231" t="s" s="33">
         <v>352</v>
       </c>
-      <c r="J231" s="10"/>
+      <c r="I231" s="10"/>
     </row>
     <row r="232" ht="17" customHeight="1">
       <c r="A232" t="s" s="12">
@@ -9651,22 +9374,21 @@
         <v>12</v>
       </c>
       <c r="D232" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E232" t="s" s="14">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F232" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G232" s="10"/>
-      <c r="H232" t="s" s="14">
+      <c r="G232" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="I232" t="s" s="31">
+      <c r="H232" t="s" s="33">
         <v>354</v>
       </c>
-      <c r="J232" s="10"/>
+      <c r="I232" s="10"/>
     </row>
     <row r="233" ht="17" customHeight="1">
       <c r="A233" t="s" s="12">
@@ -9679,7 +9401,7 @@
         <v>12</v>
       </c>
       <c r="D233" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E233" t="s" s="14">
         <v>356</v>
@@ -9687,17 +9409,16 @@
       <c r="F233" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G233" s="10"/>
-      <c r="H233" t="s" s="14">
+      <c r="G233" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="I233" t="s" s="31">
+      <c r="H233" t="s" s="33">
         <v>355</v>
       </c>
-      <c r="J233" s="10"/>
+      <c r="I233" s="10"/>
     </row>
     <row r="234" ht="17" customHeight="1">
-      <c r="A234" t="s" s="79">
+      <c r="A234" t="s" s="77">
         <v>357</v>
       </c>
       <c r="B234" t="s" s="13">
@@ -9707,7 +9428,7 @@
         <v>12</v>
       </c>
       <c r="D234" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E234" t="s" s="14">
         <v>358</v>
@@ -9715,17 +9436,16 @@
       <c r="F234" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G234" s="10"/>
-      <c r="H234" t="s" s="14">
+      <c r="G234" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="I234" t="s" s="31">
+      <c r="H234" t="s" s="33">
         <v>357</v>
       </c>
-      <c r="J234" s="10"/>
+      <c r="I234" s="10"/>
     </row>
     <row r="235" ht="17" customHeight="1">
-      <c r="A235" t="s" s="79">
+      <c r="A235" t="s" s="77">
         <v>359</v>
       </c>
       <c r="B235" t="s" s="13">
@@ -9735,7 +9455,7 @@
         <v>12</v>
       </c>
       <c r="D235" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E235" t="s" s="14">
         <v>360</v>
@@ -9743,14 +9463,13 @@
       <c r="F235" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G235" s="10"/>
-      <c r="H235" t="s" s="14">
+      <c r="G235" t="s" s="14">
         <v>347</v>
       </c>
-      <c r="I235" t="s" s="32">
+      <c r="H235" t="s" s="34">
         <v>359</v>
       </c>
-      <c r="J235" s="10"/>
+      <c r="I235" s="10"/>
     </row>
     <row r="236" ht="45.75" customHeight="1">
       <c r="A236" t="s" s="12">
@@ -9763,7 +9482,7 @@
         <v>12</v>
       </c>
       <c r="D236" t="s" s="14">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E236" t="s" s="14">
         <v>362</v>
@@ -9771,21 +9490,20 @@
       <c r="F236" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G236" s="10"/>
-      <c r="H236" t="s" s="41">
+      <c r="G236" t="s" s="23">
         <v>347</v>
       </c>
-      <c r="I236" t="s" s="12">
+      <c r="H236" t="s" s="12">
         <v>361</v>
       </c>
-      <c r="J236" s="20"/>
+      <c r="I236" s="21"/>
     </row>
     <row r="237" ht="30.75" customHeight="1">
-      <c r="A237" t="s" s="79">
+      <c r="A237" t="s" s="77">
         <v>363</v>
       </c>
       <c r="B237" t="s" s="13">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C237" t="s" s="14">
         <v>12</v>
@@ -9799,14 +9517,13 @@
       <c r="F237" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G237" s="10"/>
-      <c r="H237" t="s" s="41">
+      <c r="G237" t="s" s="23">
         <v>347</v>
       </c>
-      <c r="I237" t="s" s="79">
+      <c r="H237" t="s" s="77">
         <v>363</v>
       </c>
-      <c r="J237" s="20"/>
+      <c r="I237" s="21"/>
     </row>
     <row r="238" ht="13.55" customHeight="1">
       <c r="A238" s="11"/>
@@ -9816,9 +9533,8 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
       <c r="G238" s="10"/>
-      <c r="H238" s="10"/>
-      <c r="I238" s="11"/>
-      <c r="J238" s="10"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="10"/>
     </row>
     <row r="239" ht="13.55" customHeight="1">
       <c r="A239" s="10"/>
@@ -9830,7 +9546,6 @@
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
       <c r="I239" s="10"/>
-      <c r="J239" s="10"/>
     </row>
     <row r="240" ht="13.55" customHeight="1">
       <c r="A240" s="10"/>
@@ -9842,7 +9557,6 @@
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
       <c r="I240" s="10"/>
-      <c r="J240" s="10"/>
     </row>
     <row r="241" ht="13.55" customHeight="1">
       <c r="A241" s="10"/>
@@ -9854,7 +9568,6 @@
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
       <c r="I241" s="10"/>
-      <c r="J241" s="10"/>
     </row>
     <row r="242" ht="13.55" customHeight="1">
       <c r="A242" s="10"/>
@@ -9866,7 +9579,6 @@
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
       <c r="I242" s="10"/>
-      <c r="J242" s="10"/>
     </row>
     <row r="243" ht="13.55" customHeight="1">
       <c r="A243" s="10"/>
@@ -9878,7 +9590,6 @@
       <c r="G243" s="10"/>
       <c r="H243" s="10"/>
       <c r="I243" s="10"/>
-      <c r="J243" s="10"/>
     </row>
     <row r="244" ht="13.55" customHeight="1">
       <c r="A244" s="10"/>
@@ -9890,7 +9601,6 @@
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
       <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
     </row>
     <row r="245" ht="13.55" customHeight="1">
       <c r="A245" s="10"/>
@@ -9902,7 +9612,6 @@
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
       <c r="I245" s="10"/>
-      <c r="J245" s="10"/>
     </row>
     <row r="246" ht="13.55" customHeight="1">
       <c r="A246" s="10"/>
@@ -9914,7 +9623,6 @@
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
-      <c r="J246" s="10"/>
     </row>
     <row r="247" ht="13.55" customHeight="1">
       <c r="A247" s="10"/>
@@ -9926,7 +9634,6 @@
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
     </row>
     <row r="248" ht="13.55" customHeight="1">
       <c r="A248" s="10"/>
@@ -9938,7 +9645,6 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
       <c r="I248" s="10"/>
-      <c r="J248" s="10"/>
     </row>
     <row r="249" ht="13.55" customHeight="1">
       <c r="A249" s="10"/>
@@ -9950,7 +9656,6 @@
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
       <c r="I249" s="10"/>
-      <c r="J249" s="10"/>
     </row>
     <row r="250" ht="13.55" customHeight="1">
       <c r="A250" s="10"/>
@@ -9962,7 +9667,6 @@
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
-      <c r="J250" s="10"/>
     </row>
     <row r="251" ht="13.55" customHeight="1">
       <c r="A251" s="10"/>
@@ -9974,10 +9678,9 @@
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
-      <c r="J251" s="10"/>
     </row>
     <row r="252" ht="13.55" customHeight="1">
-      <c r="A252" s="80"/>
+      <c r="A252" s="78"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
@@ -9986,11 +9689,10 @@
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
       <c r="I252" s="10"/>
-      <c r="J252" s="10"/>
     </row>
     <row r="253" ht="13.55" customHeight="1">
-      <c r="A253" s="81"/>
-      <c r="B253" s="20"/>
+      <c r="A253" s="79"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
       <c r="E253" s="10"/>
@@ -9998,7 +9700,6 @@
       <c r="G253" s="10"/>
       <c r="H253" s="10"/>
       <c r="I253" s="10"/>
-      <c r="J253" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10017,11 +9718,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.85156" style="82" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="82" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="82" customWidth="1"/>
-    <col min="6" max="6" width="98.6719" style="82" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="82" customWidth="1"/>
+    <col min="1" max="2" width="8.85156" style="80" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="80" customWidth="1"/>
+    <col min="4" max="5" width="8.85156" style="80" customWidth="1"/>
+    <col min="6" max="6" width="98.6719" style="80" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -10038,131 +9739,131 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="80"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="80"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" ht="137.25" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="83"/>
+      <c r="B7" s="81"/>
       <c r="C7" t="s" s="12">
-        <v>209</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="81"/>
+        <v>210</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="83"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="81"/>
       <c r="F8" t="s" s="12">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="79"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="79"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="79"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="83"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="81"/>
       <c r="F16" t="s" s="12">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
     </row>

--- a/DataExtraction/Input/AOC4_NBFC/AOC-4_NBFC_nodes_seperated_config_new.xlsx
+++ b/DataExtraction/Input/AOC4_NBFC/AOC-4_NBFC_nodes_seperated_config_new.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
   <si>
     <t>Field_Name</t>
   </si>
@@ -825,7 +825,7 @@
     <t>CURRENT_TAX_CR</t>
   </si>
   <si>
-    <t xml:space="preserve"> Current tax </t>
+    <t xml:space="preserve">Current tax </t>
   </si>
   <si>
     <t>Deferred_tax</t>
@@ -834,7 +834,7 @@
     <t>DEFERRED_TAX_CR</t>
   </si>
   <si>
-    <t xml:space="preserve"> Deferred tax</t>
+    <t>Deferred tax</t>
   </si>
   <si>
     <t>income_tax</t>
@@ -961,9 +961,6 @@
   </si>
   <si>
     <t>CURRENT_TAX_PR</t>
-  </si>
-  <si>
-    <t>Deferred tax</t>
   </si>
   <si>
     <t>DEFERRED_TAX_PR</t>
@@ -8527,7 +8524,7 @@
     </row>
     <row r="200" ht="13.55" customHeight="1">
       <c r="A200" t="s" s="28">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="B200" t="s" s="13">
         <v>11</v>
@@ -8539,7 +8536,7 @@
         <v>218</v>
       </c>
       <c r="E200" t="s" s="14">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F200" t="s" s="14">
         <v>27</v>
@@ -8568,7 +8565,7 @@
         <v>218</v>
       </c>
       <c r="E201" t="s" s="14">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F201" t="s" s="14">
         <v>27</v>
@@ -8597,7 +8594,7 @@
         <v>162</v>
       </c>
       <c r="E202" t="s" s="14">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F202" t="s" s="14">
         <v>27</v>
@@ -8684,7 +8681,7 @@
         <v>218</v>
       </c>
       <c r="E205" t="s" s="39">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F205" t="s" s="14">
         <v>27</v>
@@ -8742,7 +8739,7 @@
         <v>218</v>
       </c>
       <c r="E207" t="s" s="22">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F207" t="s" s="14">
         <v>27</v>
@@ -8771,7 +8768,7 @@
         <v>218</v>
       </c>
       <c r="E208" t="s" s="14">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F208" t="s" s="14">
         <v>27</v>
@@ -8800,7 +8797,7 @@
         <v>218</v>
       </c>
       <c r="E209" t="s" s="14">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F209" t="s" s="14">
         <v>27</v>
@@ -8829,7 +8826,7 @@
         <v>218</v>
       </c>
       <c r="E210" t="s" s="14">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F210" t="s" s="14">
         <v>27</v>
@@ -8858,7 +8855,7 @@
         <v>218</v>
       </c>
       <c r="E211" t="s" s="14">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F211" t="s" s="14">
         <v>27</v>
@@ -8887,7 +8884,7 @@
         <v>218</v>
       </c>
       <c r="E212" t="s" s="14">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F212" t="s" s="14">
         <v>27</v>
@@ -8916,7 +8913,7 @@
         <v>218</v>
       </c>
       <c r="E213" t="s" s="14">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F213" t="s" s="14">
         <v>27</v>
@@ -8945,7 +8942,7 @@
         <v>218</v>
       </c>
       <c r="E214" t="s" s="14">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F214" t="s" s="14">
         <v>27</v>
@@ -8974,7 +8971,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s" s="14">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F215" t="s" s="14">
         <v>27</v>
@@ -9003,7 +9000,7 @@
         <v>218</v>
       </c>
       <c r="E216" t="s" s="14">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F216" t="s" s="14">
         <v>27</v>
@@ -9032,7 +9029,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s" s="14">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F217" t="s" s="14">
         <v>27</v>
@@ -9049,7 +9046,7 @@
     </row>
     <row r="218" ht="29.25" customHeight="1">
       <c r="A218" t="s" s="71">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B218" s="72"/>
       <c r="C218" s="21"/>
@@ -9062,7 +9059,7 @@
     </row>
     <row r="219" ht="31" customHeight="1">
       <c r="A219" t="s" s="17">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B219" t="s" s="58">
         <v>11</v>
@@ -9083,15 +9080,15 @@
         <v>16</v>
       </c>
       <c r="H219" t="s" s="33">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I219" t="s" s="73">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="220" ht="29.25" customHeight="1">
       <c r="A220" t="s" s="71">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B220" s="21"/>
       <c r="C220" s="10"/>
@@ -9104,7 +9101,7 @@
     </row>
     <row r="221" ht="31" customHeight="1">
       <c r="A221" t="s" s="17">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B221" t="s" s="13">
         <v>11</v>
@@ -9125,15 +9122,15 @@
         <v>16</v>
       </c>
       <c r="H221" t="s" s="33">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I221" t="s" s="73">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="222" ht="14.45" customHeight="1">
       <c r="A222" t="s" s="55">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B222" s="21"/>
       <c r="C222" s="10"/>
@@ -9146,19 +9143,19 @@
     </row>
     <row r="223" ht="13.65" customHeight="1">
       <c r="A223" t="s" s="12">
+        <v>334</v>
+      </c>
+      <c r="B223" t="s" s="13">
         <v>335</v>
       </c>
-      <c r="B223" t="s" s="13">
+      <c r="C223" t="s" s="14">
         <v>336</v>
       </c>
-      <c r="C223" t="s" s="14">
+      <c r="D223" t="s" s="14">
         <v>337</v>
       </c>
-      <c r="D223" t="s" s="14">
+      <c r="E223" t="s" s="14">
         <v>338</v>
-      </c>
-      <c r="E223" t="s" s="14">
-        <v>339</v>
       </c>
       <c r="F223" t="s" s="14">
         <v>22</v>
@@ -9167,15 +9164,15 @@
         <v>16</v>
       </c>
       <c r="H223" t="s" s="75">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I223" t="s" s="16">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="224" ht="24" customHeight="1">
       <c r="A224" t="s" s="76">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B224" s="21"/>
       <c r="C224" s="10"/>
@@ -9188,7 +9185,7 @@
     </row>
     <row r="225" ht="24.65" customHeight="1">
       <c r="A225" t="s" s="12">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B225" t="s" s="13">
         <v>11</v>
@@ -9200,7 +9197,7 @@
         <v>218</v>
       </c>
       <c r="E225" t="s" s="14">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F225" t="s" s="14">
         <v>22</v>
@@ -9209,15 +9206,15 @@
         <v>16</v>
       </c>
       <c r="H225" t="s" s="16">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I225" t="s" s="16">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="226" ht="13.55" customHeight="1">
       <c r="A226" t="s" s="55">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B226" s="21"/>
       <c r="C226" s="10"/>
@@ -9245,10 +9242,10 @@
         <v>14</v>
       </c>
       <c r="F227" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G227" t="s" s="14">
         <v>346</v>
-      </c>
-      <c r="G227" t="s" s="14">
-        <v>347</v>
       </c>
       <c r="H227" t="s" s="33">
         <v>10</v>
@@ -9272,10 +9269,10 @@
         <v>18</v>
       </c>
       <c r="F228" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G228" t="s" s="14">
         <v>346</v>
-      </c>
-      <c r="G228" t="s" s="14">
-        <v>347</v>
       </c>
       <c r="H228" t="s" s="33">
         <v>17</v>
@@ -9284,7 +9281,7 @@
     </row>
     <row r="229" ht="17" customHeight="1">
       <c r="A229" t="s" s="12">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B229" t="s" s="13">
         <v>11</v>
@@ -9296,22 +9293,22 @@
         <v>218</v>
       </c>
       <c r="E229" t="s" s="14">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F229" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G229" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G229" t="s" s="14">
+      <c r="H229" t="s" s="33">
         <v>347</v>
-      </c>
-      <c r="H229" t="s" s="33">
-        <v>348</v>
       </c>
       <c r="I229" s="10"/>
     </row>
     <row r="230" ht="17" customHeight="1">
       <c r="A230" t="s" s="12">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B230" t="s" s="13">
         <v>11</v>
@@ -9323,22 +9320,22 @@
         <v>218</v>
       </c>
       <c r="E230" t="s" s="14">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F230" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G230" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G230" t="s" s="14">
-        <v>347</v>
-      </c>
       <c r="H230" t="s" s="33">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I230" s="10"/>
     </row>
     <row r="231" ht="17" customHeight="1">
       <c r="A231" t="s" s="12">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B231" t="s" s="13">
         <v>11</v>
@@ -9350,22 +9347,22 @@
         <v>20</v>
       </c>
       <c r="E231" t="s" s="14">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F231" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G231" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G231" t="s" s="14">
-        <v>347</v>
-      </c>
       <c r="H231" t="s" s="33">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I231" s="10"/>
     </row>
     <row r="232" ht="17" customHeight="1">
       <c r="A232" t="s" s="12">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B232" t="s" s="13">
         <v>11</v>
@@ -9380,19 +9377,19 @@
         <v>297</v>
       </c>
       <c r="F232" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G232" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G232" t="s" s="14">
-        <v>347</v>
-      </c>
       <c r="H232" t="s" s="33">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I232" s="10"/>
     </row>
     <row r="233" ht="17" customHeight="1">
       <c r="A233" t="s" s="12">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B233" t="s" s="13">
         <v>11</v>
@@ -9404,22 +9401,22 @@
         <v>218</v>
       </c>
       <c r="E233" t="s" s="14">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F233" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G233" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G233" t="s" s="14">
-        <v>347</v>
-      </c>
       <c r="H233" t="s" s="33">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I233" s="10"/>
     </row>
     <row r="234" ht="17" customHeight="1">
       <c r="A234" t="s" s="77">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B234" t="s" s="13">
         <v>11</v>
@@ -9431,22 +9428,22 @@
         <v>218</v>
       </c>
       <c r="E234" t="s" s="14">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F234" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G234" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G234" t="s" s="14">
-        <v>347</v>
-      </c>
       <c r="H234" t="s" s="33">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I234" s="10"/>
     </row>
     <row r="235" ht="17" customHeight="1">
       <c r="A235" t="s" s="77">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B235" t="s" s="13">
         <v>11</v>
@@ -9458,22 +9455,22 @@
         <v>218</v>
       </c>
       <c r="E235" t="s" s="14">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F235" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G235" t="s" s="14">
         <v>346</v>
       </c>
-      <c r="G235" t="s" s="14">
-        <v>347</v>
-      </c>
       <c r="H235" t="s" s="34">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I235" s="10"/>
     </row>
     <row r="236" ht="45.75" customHeight="1">
       <c r="A236" t="s" s="12">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B236" t="s" s="13">
         <v>11</v>
@@ -9485,43 +9482,43 @@
         <v>218</v>
       </c>
       <c r="E236" t="s" s="14">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F236" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G236" t="s" s="23">
         <v>346</v>
       </c>
-      <c r="G236" t="s" s="23">
-        <v>347</v>
-      </c>
       <c r="H236" t="s" s="12">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I236" s="21"/>
     </row>
     <row r="237" ht="30.75" customHeight="1">
       <c r="A237" t="s" s="77">
+        <v>362</v>
+      </c>
+      <c r="B237" t="s" s="13">
+        <v>335</v>
+      </c>
+      <c r="C237" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D237" t="s" s="14">
         <v>363</v>
       </c>
-      <c r="B237" t="s" s="13">
-        <v>336</v>
-      </c>
-      <c r="C237" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D237" t="s" s="14">
+      <c r="E237" t="s" s="14">
         <v>364</v>
       </c>
-      <c r="E237" t="s" s="14">
-        <v>365</v>
-      </c>
       <c r="F237" t="s" s="14">
+        <v>345</v>
+      </c>
+      <c r="G237" t="s" s="23">
         <v>346</v>
       </c>
-      <c r="G237" t="s" s="23">
-        <v>347</v>
-      </c>
       <c r="H237" t="s" s="77">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I237" s="21"/>
     </row>
